--- a/QuantLibXL/Data2/XLS/USD/USD_YCSTDBootstrapping_Mx.xlsx
+++ b/QuantLibXL/Data2/XLS/USD/USD_YCSTDBootstrapping_Mx.xlsx
@@ -123,6 +123,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ferdinando Ametrano</author>
+    <author>MAZZOCCHI PAOLO</author>
   </authors>
   <commentList>
     <comment ref="AF3" authorId="0">
@@ -177,12 +178,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="AF12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Check if there are more recent values available</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="167">
   <si>
     <t>3M</t>
   </si>
@@ -680,6 +695,9 @@
   </si>
   <si>
     <t>Mx Convexity</t>
+  </si>
+  <si>
+    <t>1W</t>
   </si>
 </sst>
 </file>
@@ -705,9 +723,9 @@
     <numFmt numFmtId="179" formatCode="0.0000"/>
     <numFmt numFmtId="180" formatCode="0.0000E+00"/>
     <numFmt numFmtId="181" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="186" formatCode="0.0000000"/>
+    <numFmt numFmtId="182" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +793,13 @@
       <color indexed="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1111,7 +1136,7 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,9 +1754,6 @@
     <xf numFmtId="164" fontId="3" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1747,17 +1769,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1820,16 +1842,16 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 17:56:35</v>
+        <v>Updated at 11:30:51</v>
         <stp/>
-        <stp>{EEF5BD24-AB55-4BAC-9C5B-F61ADF23DDE1}</stp>
-        <tr r="J3" s="17"/>
+        <stp>{BEB5BA61-DF91-49ED-96FF-4715F895B4B2}</stp>
+        <tr r="J3" s="16"/>
       </tp>
       <tp t="s">
-        <v>Paused at 17:56:35</v>
+        <v>Updated at 11:38:14</v>
         <stp/>
-        <stp>{E74E57DD-4675-434A-8A75-94504ECF69E7}</stp>
-        <tr r="J3" s="16"/>
+        <stp>{C480A836-953C-454D-BA73-C51DD018722B}</stp>
+        <tr r="J3" s="17"/>
       </tp>
     </main>
   </volType>
@@ -2218,7 +2240,7 @@
       </c>
       <c r="I3" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42256</v>
+        <v>42257</v>
       </c>
       <c r="J3" s="81"/>
     </row>
@@ -2237,7 +2259,7 @@
       </c>
       <c r="I4" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"2D","F",,Trigger)</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="J4" s="81"/>
     </row>
@@ -2378,7 +2400,7 @@
       </c>
       <c r="D14" s="41" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,D17,Calendar,_xll.ohPack(USDSTD!W3:W71),,,,D18,D19,D20,Permanent,,ObjectOverwrite)</f>
-        <v>_USDSTD#0013</v>
+        <v>_USDSTD#0008</v>
       </c>
       <c r="E14" s="42"/>
     </row>
@@ -2451,7 +2473,7 @@
       <c r="B22" s="23"/>
       <c r="C22" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42256</v>
+        <v>42257</v>
       </c>
       <c r="D22" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C22,,Trigger)</f>
@@ -2463,11 +2485,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>64180</v>
+        <v>64185</v>
       </c>
       <c r="D23" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C23,,Trigger)</f>
-        <v>0.19738216470096412</v>
+        <v>0.19813291842450667</v>
       </c>
       <c r="E23" s="42"/>
     </row>
@@ -2628,8 +2650,12 @@
       <c r="D2" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="E2" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>110</v>
+      </c>
       <c r="G2" s="63" t="s">
         <v>4</v>
       </c>
@@ -2693,10 +2719,10 @@
         <f t="array" ref="AC2:AC71">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
         <v>2.8388778488116924E-3</v>
       </c>
-      <c r="AE2" s="279" t="s">
+      <c r="AE2" s="280" t="s">
         <v>82</v>
       </c>
-      <c r="AF2" s="280"/>
+      <c r="AF2" s="281"/>
       <c r="AH2" s="157"/>
     </row>
     <row r="3" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2718,12 +2744,12 @@
       </c>
       <c r="H3" s="120" t="str">
         <f>Mx_Deposits!D4</f>
-        <v>USDOND_Mx_Quote#0003</v>
+        <v>USDOND_Mx_Quote#0002</v>
       </c>
       <c r="I3" s="123"/>
       <c r="J3" s="113" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c3#0004</v>
+        <v>obj_003c3#0002</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="66" t="str">
@@ -2732,7 +2758,7 @@
       </c>
       <c r="M3" s="131" t="str">
         <f t="shared" ref="M3:M9" si="1">IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_003c3#0004</v>
+        <v>obj_003c3#0002</v>
       </c>
       <c r="N3" s="144" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
@@ -2753,11 +2779,11 @@
       </c>
       <c r="S3" s="134">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42256</v>
+        <v>42257</v>
       </c>
       <c r="T3" s="134">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42257</v>
+        <v>42258</v>
       </c>
       <c r="V3" s="3" t="str">
         <f t="shared" ref="V3:V34" si="2">IFERROR(INDEX($L$3:$L$80,MATCH(X3,$N$3:$N$80,0),1),"")</f>
@@ -2781,11 +2807,11 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42256</v>
+        <v>42257</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42257</v>
+        <v>42258</v>
       </c>
       <c r="AC3" s="68">
         <v>2.8388778488116924E-3</v>
@@ -2811,15 +2837,19 @@
       <c r="D4" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="E4" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="G4" s="55" t="str">
-        <f>_xll.qlLibor(,Currency,C4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0004</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C4="ON","1D",C4),2,Currency,LocalCalendar,E4,TRUE,F4,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_0037b#0004</v>
       </c>
       <c r="H4" s="154" t="str">
         <f>Mx_Deposits!D5</f>
-        <v>USDTND_Mx_Quote#0003</v>
+        <v>USDTND_Mx_Quote#0002</v>
       </c>
       <c r="I4" s="130"/>
       <c r="J4" s="57" t="str">
@@ -2854,11 +2884,11 @@
       </c>
       <c r="S4" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M4,Trigger),"--")</f>
-        <v>42257</v>
+        <v>42262</v>
       </c>
       <c r="T4" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M4,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42263</v>
       </c>
       <c r="V4" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2881,14 +2911,14 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42257</v>
+        <v>42262</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42258</v>
+        <v>42263</v>
       </c>
       <c r="AC4" s="68">
-        <v>2.8388778488016657E-3</v>
+        <v>2.8388778488136973E-3</v>
       </c>
       <c r="AE4" s="106" t="s">
         <v>84</v>
@@ -2911,20 +2941,24 @@
       <c r="D5" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="6" t="str">
-        <f>_xll.qlLibor(,Currency,C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00391#0004</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C5="ON","1D",C5),2,Currency,LocalCalendar,E5,TRUE,F5,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00383#0003</v>
       </c>
       <c r="H5" s="122" t="str">
         <f>Mx_Deposits!D6</f>
-        <v>USDSND_Mx_Quote#0003</v>
+        <v>USDSND_Mx_Quote#0002</v>
       </c>
       <c r="I5" s="125"/>
       <c r="J5" s="2" t="str">
         <f>_xll.qlFraRateHelper(,H5,D5,G5,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039f#0004</v>
+        <v>obj_0039e#0003</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="9" t="str">
@@ -2933,7 +2967,7 @@
       </c>
       <c r="M5" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0039f#0004</v>
+        <v>obj_0039e#0003</v>
       </c>
       <c r="N5" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
@@ -2954,18 +2988,18 @@
       </c>
       <c r="S5" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42263</v>
       </c>
       <c r="T5" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
-        <v>42261</v>
+        <v>42264</v>
       </c>
       <c r="V5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W5" s="3" t="str">
-        <v>obj_0039f</v>
+        <v>obj_0039e</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -2981,14 +3015,14 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42258</v>
+        <v>42263</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42261</v>
+        <v>42264</v>
       </c>
       <c r="AC5" s="68">
-        <v>2.8388646009498684E-3</v>
+        <v>2.8388778488216914E-3</v>
       </c>
       <c r="AD5" s="74"/>
       <c r="AE5" s="106" t="s">
@@ -3006,25 +3040,28 @@
       <c r="B6" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="243" t="str">
-        <f t="shared" ref="C6:C20" si="3">B6</f>
-        <v>SW</v>
+      <c r="C6" s="243" t="s">
+        <v>166</v>
       </c>
       <c r="D6" s="244"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
+      <c r="E6" s="245" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="245" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="245" t="str">
-        <f>Currency&amp;FamilyName&amp;C6</f>
-        <v>USDLiborSW</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C6="ON","1D",C6),2,Currency,LocalCalendar,E6,TRUE,F6,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003e2#0001</v>
       </c>
       <c r="H6" s="246" t="str">
         <f>Mx_Deposits!D7</f>
-        <v>USDSWD_Mx_Quote#0003</v>
+        <v>USDSWD_Mx_Quote#0002</v>
       </c>
       <c r="I6" s="244"/>
       <c r="J6" s="247" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ac#0004</v>
+        <v>obj_003bf#0003</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
@@ -3033,7 +3070,7 @@
       </c>
       <c r="M6" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_003ac#0004</v>
+        <v>obj_003bf#0003</v>
       </c>
       <c r="N6" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -3054,18 +3091,18 @@
       </c>
       <c r="S6" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T6" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42265</v>
+        <v>42268</v>
       </c>
       <c r="V6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_003ac</v>
+        <v>obj_003bf</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -3081,14 +3118,14 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42265</v>
+        <v>42268</v>
       </c>
       <c r="AC6" s="68">
-        <v>1.8539312643674546E-3</v>
+        <v>2.033012461538869E-3</v>
       </c>
       <c r="AE6" s="106" t="s">
         <v>86</v>
@@ -3106,24 +3143,28 @@
         <v>128</v>
       </c>
       <c r="C7" s="61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C6:C20" si="3">B7</f>
         <v>2W</v>
       </c>
       <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
+      <c r="E7" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="60" t="str">
-        <f>_xll.qlLibor(,Currency,C7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bf#0004</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C7="ON","1D",C7),2,Currency,LocalCalendar,E7,TRUE,F7,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003c0#0003</v>
       </c>
       <c r="H7" s="121" t="str">
         <f>Mx_Deposits!D8</f>
-        <v>USD2WD_Mx_Quote#0003</v>
+        <v>USD2WD_Mx_Quote#0002</v>
       </c>
       <c r="I7" s="124"/>
       <c r="J7" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c1#0004</v>
+        <v>obj_003c1#0003</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
@@ -3132,7 +3173,7 @@
       </c>
       <c r="M7" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_003c1#0004</v>
+        <v>obj_003c1#0003</v>
       </c>
       <c r="N7" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -3140,7 +3181,7 @@
       </c>
       <c r="O7" s="97">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>1.6879199999999999E-3</v>
+        <v>1.6998260900000001E-3</v>
       </c>
       <c r="P7" s="96" t="b">
         <v>1</v>
@@ -3153,11 +3194,11 @@
       </c>
       <c r="S7" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T7" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="V7" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3172,7 +3213,7 @@
       </c>
       <c r="Y7" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>1.6879199999999999E-3</v>
+        <v>1.6998260900000001E-3</v>
       </c>
       <c r="Z7" s="103" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -3180,14 +3221,14 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AC7" s="68">
-        <v>1.8522535028399662E-3</v>
+        <v>1.9712667191293803E-3</v>
       </c>
       <c r="AH7" s="157"/>
     </row>
@@ -3203,20 +3244,24 @@
         <v>3W</v>
       </c>
       <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="E8" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="60" t="str">
-        <f>_xll.qlLibor(,Currency,C8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b9#0004</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C8="ON","1D",C8),2,Currency,LocalCalendar,E8,TRUE,F8,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003b7#0003</v>
       </c>
       <c r="H8" s="121" t="str">
         <f>Mx_Deposits!D9</f>
-        <v>USD3WD_Mx_Quote#0003</v>
+        <v>USD3WD_Mx_Quote#0002</v>
       </c>
       <c r="I8" s="124"/>
       <c r="J8" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c2#0004</v>
+        <v>obj_003c2#0003</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
@@ -3225,7 +3270,7 @@
       </c>
       <c r="M8" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_003c2#0004</v>
+        <v>obj_003c2#0003</v>
       </c>
       <c r="N8" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -3233,7 +3278,7 @@
       </c>
       <c r="O8" s="97">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>1.8248400000000001E-3</v>
+        <v>1.8486521700000001E-3</v>
       </c>
       <c r="P8" s="96" t="b">
         <v>1</v>
@@ -3246,11 +3291,11 @@
       </c>
       <c r="S8" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T8" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42282</v>
       </c>
       <c r="V8" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3265,7 +3310,7 @@
       </c>
       <c r="Y8" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>1.8248400000000001E-3</v>
+        <v>1.8486521700000001E-3</v>
       </c>
       <c r="Z8" s="103" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -3273,14 +3318,14 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42279</v>
+        <v>42282</v>
       </c>
       <c r="AC8" s="68">
-        <v>1.9360683852615653E-3</v>
+        <v>2.0285710013431546E-3</v>
       </c>
       <c r="AH8" s="157"/>
     </row>
@@ -3296,20 +3341,24 @@
         <v>1M</v>
       </c>
       <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
+      <c r="E9" s="252" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="252" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="252" t="str">
-        <f>Currency&amp;FamilyName&amp;C9</f>
-        <v>USDLibor1M</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C9="ON","1D",C9),2,Currency,LocalCalendar,E9,TRUE,F9,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003e0#0001</v>
       </c>
       <c r="H9" s="253" t="str">
         <f>Mx_Deposits!D10</f>
-        <v>USD1MD_Mx_Quote#0003</v>
+        <v>USD1MD_Mx_Quote#0002</v>
       </c>
       <c r="I9" s="251"/>
       <c r="J9" s="254" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039c#0004</v>
+        <v>obj_0039c#0003</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
@@ -3318,7 +3367,7 @@
       </c>
       <c r="M9" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0039c#0004</v>
+        <v>obj_0039c#0003</v>
       </c>
       <c r="N9" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -3339,11 +3388,11 @@
       </c>
       <c r="S9" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T9" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42289</v>
+        <v>42291</v>
       </c>
       <c r="V9" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3366,14 +3415,14 @@
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42289</v>
+        <v>42291</v>
       </c>
       <c r="AC9" s="68">
-        <v>2.1148623624412163E-3</v>
+        <v>2.1588305217629974E-3</v>
       </c>
       <c r="AH9" s="157"/>
     </row>
@@ -3389,20 +3438,24 @@
         <v>2M</v>
       </c>
       <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="E10" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="60" t="str">
-        <f>Currency&amp;FamilyName&amp;C10</f>
-        <v>USDLibor2M</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C10="ON","1D",C10),2,Currency,LocalCalendar,E10,TRUE,F10,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003df#0001</v>
       </c>
       <c r="H10" s="121" t="str">
         <f>Mx_Deposits!D11</f>
-        <v>USD2MD_Mx_Quote#0003</v>
+        <v>USD2MD_Mx_Quote#0002</v>
       </c>
       <c r="I10" s="124"/>
       <c r="J10" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039e#0004</v>
+        <v>obj_0039f#0003</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="9" t="str">
@@ -3411,7 +3464,7 @@
       </c>
       <c r="M10" s="93" t="str">
         <f t="shared" ref="M10:M19" si="5">IF(ISBLANK(J10),"--",J10)</f>
-        <v>obj_0039e#0004</v>
+        <v>obj_0039f#0003</v>
       </c>
       <c r="N10" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -3432,18 +3485,18 @@
       </c>
       <c r="S10" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T10" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42319</v>
+        <v>42324</v>
       </c>
       <c r="V10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W10" s="3" t="str">
-        <v>obj_0039e</v>
+        <v>obj_0039f</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -3459,14 +3512,14 @@
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42319</v>
+        <v>42324</v>
       </c>
       <c r="AC10" s="68">
-        <v>2.7258840193963895E-3</v>
+        <v>2.7291272940658797E-3</v>
       </c>
       <c r="AH10" s="157"/>
     </row>
@@ -3482,20 +3535,24 @@
         <v>3M</v>
       </c>
       <c r="D11" s="258"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="258"/>
+      <c r="E11" s="259" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="259" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" s="259" t="str">
-        <f>Currency&amp;FamilyName&amp;C11</f>
-        <v>USDLibor3M</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C11="ON","1D",C11),2,Currency,LocalCalendar,E11,TRUE,F11,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003de#0001</v>
       </c>
       <c r="H11" s="260" t="str">
         <f>Mx_Deposits!D12</f>
-        <v>USD3MD_Mx_Quote#0003</v>
+        <v>USD3MD_Mx_Quote#0002</v>
       </c>
       <c r="I11" s="258"/>
       <c r="J11" s="261" t="str">
         <f>_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039b#0004</v>
+        <v>obj_0039b#0003</v>
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="9" t="str">
@@ -3504,7 +3561,7 @@
       </c>
       <c r="M11" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_0039b#0004</v>
+        <v>obj_0039b#0003</v>
       </c>
       <c r="N11" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
@@ -3525,11 +3582,11 @@
       </c>
       <c r="S11" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T11" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42349</v>
+        <v>42352</v>
       </c>
       <c r="V11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3552,14 +3609,14 @@
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42349</v>
+        <v>42352</v>
       </c>
       <c r="AC11" s="68">
-        <v>3.3633039688909841E-3</v>
+        <v>3.3522634189946453E-3</v>
       </c>
       <c r="AE11" s="69" t="s">
         <v>159</v>
@@ -3581,20 +3638,24 @@
         <v>4M</v>
       </c>
       <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
+      <c r="E12" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="60" t="str">
-        <f>_xll.qlLibor(,Currency,C12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00382#0004</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C12="ON","1D",C12),2,Currency,LocalCalendar,E12,TRUE,F12,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00381#0003</v>
       </c>
       <c r="H12" s="121" t="str">
         <f>Mx_Deposits!D13</f>
-        <v>USD4MD_Mx_Quote#0003</v>
+        <v>USD4MD_Mx_Quote#0002</v>
       </c>
       <c r="I12" s="124"/>
       <c r="J12" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00398#0004</v>
+        <v>obj_00393#0003</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>46</v>
@@ -3605,7 +3666,7 @@
       </c>
       <c r="M12" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00398#0004</v>
+        <v>obj_00393#0003</v>
       </c>
       <c r="N12" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
@@ -3626,18 +3687,18 @@
       </c>
       <c r="S12" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T12" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42380</v>
+        <v>42383</v>
       </c>
       <c r="V12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_00398</v>
+        <v>obj_00393</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -3653,21 +3714,21 @@
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>42380</v>
+        <v>42383</v>
       </c>
       <c r="AC12" s="68">
-        <v>4.0648666594217675E-3</v>
+        <v>4.0454065196326838E-3</v>
       </c>
       <c r="AE12" s="103" t="str">
         <f>_xll.qlIMMNextCode($E$24-1,TRUE,Trigger)</f>
-        <v>H6</v>
-      </c>
-      <c r="AF12" s="281">
-        <v>0</v>
+        <v>M6</v>
+      </c>
+      <c r="AF12" s="278">
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="AH12" s="157"/>
     </row>
@@ -3683,20 +3744,24 @@
         <v>5M</v>
       </c>
       <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
+      <c r="E13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="G13" s="60" t="str">
-        <f>_xll.qlLibor(,Currency,C13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038a#0004</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C13="ON","1D",C13),2,Currency,LocalCalendar,E13,TRUE,F13,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00364#0003</v>
       </c>
       <c r="H13" s="121" t="str">
         <f>Mx_Deposits!D14</f>
-        <v>USD5MD_Mx_Quote#0003</v>
+        <v>USD5MD_Mx_Quote#0002</v>
       </c>
       <c r="I13" s="124"/>
       <c r="J13" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H13,G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00396#0004</v>
+        <v>obj_00398#0003</v>
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="9" t="str">
@@ -3705,7 +3770,7 @@
       </c>
       <c r="M13" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00396#0004</v>
+        <v>obj_00398#0003</v>
       </c>
       <c r="N13" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
@@ -3713,7 +3778,7 @@
       </c>
       <c r="O13" s="97">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>4.7335164799999999E-3</v>
+        <v>4.7787912099999993E-3</v>
       </c>
       <c r="P13" s="96" t="b">
         <v>1</v>
@@ -3726,18 +3791,18 @@
       </c>
       <c r="S13" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T13" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>42411</v>
+        <v>42416</v>
       </c>
       <c r="V13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_00396</v>
+        <v>obj_00398</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -3745,7 +3810,7 @@
       </c>
       <c r="Y13" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>4.7335164799999999E-3</v>
+        <v>4.7787912099999993E-3</v>
       </c>
       <c r="Z13" s="103" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -3753,21 +3818,21 @@
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>42411</v>
+        <v>42416</v>
       </c>
       <c r="AC13" s="68">
-        <v>4.7692057425709243E-3</v>
+        <v>4.7898382254897443E-3</v>
       </c>
       <c r="AE13" s="103" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE12,,Trigger),TRUE,Trigger)</f>
-        <v>M6</v>
-      </c>
-      <c r="AF13" s="281">
-        <v>0</v>
+        <v>U6</v>
+      </c>
+      <c r="AF13" s="278">
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="AH13" s="157"/>
     </row>
@@ -3782,21 +3847,25 @@
         <f t="shared" si="3"/>
         <v>6M</v>
       </c>
-      <c r="D14" s="265"/>
-      <c r="E14" s="265"/>
-      <c r="F14" s="265"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="266" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="266" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="266" t="str">
-        <f>Currency&amp;FamilyName&amp;C14</f>
-        <v>USDLibor6M</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C14="ON","1D",C14),2,Currency,LocalCalendar,E14,TRUE,F14,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003e1#0001</v>
       </c>
       <c r="H14" s="267" t="str">
         <f>Mx_Deposits!D15</f>
-        <v>USD6MD_Mx_Quote#0003</v>
+        <v>USD6MD_Mx_Quote#0002</v>
       </c>
       <c r="I14" s="265"/>
       <c r="J14" s="268" t="str">
         <f>_xll.qlDepositRateHelper(,H14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00395#0004</v>
+        <v>obj_00396#0003</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="9" t="str">
@@ -3805,7 +3874,7 @@
       </c>
       <c r="M14" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00395#0004</v>
+        <v>obj_00396#0003</v>
       </c>
       <c r="N14" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
@@ -3826,18 +3895,18 @@
       </c>
       <c r="S14" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T14" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>42440</v>
+        <v>42443</v>
       </c>
       <c r="V14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_00395</v>
+        <v>obj_00396</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -3853,21 +3922,21 @@
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>42440</v>
+        <v>42443</v>
       </c>
       <c r="AC14" s="68">
-        <v>5.4289663768985596E-3</v>
+        <v>5.4011159626906492E-3</v>
       </c>
       <c r="AE14" s="103" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE13,,Trigger),TRUE,Trigger)</f>
-        <v>U6</v>
-      </c>
-      <c r="AF14" s="281">
-        <v>0</v>
+        <v>Z6</v>
+      </c>
+      <c r="AF14" s="278">
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="AH14" s="157"/>
     </row>
@@ -3882,21 +3951,25 @@
         <f t="shared" si="3"/>
         <v>7M</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="60" t="str">
-        <f>_xll.qlLibor(,Currency,C15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0038d#0004</v>
+      <c r="D15" s="251"/>
+      <c r="E15" s="252" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="252" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="252" t="str">
+        <f>_xll.qlIborIndex(,FamilyName,IF(C15="ON","1D",C15),2,Currency,LocalCalendar,E15,TRUE,F15,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00371#0003</v>
       </c>
       <c r="H15" s="121" t="str">
         <f>Mx_Deposits!D16</f>
-        <v>USD7MD_Mx_Quote#0003</v>
+        <v>USD7MD_Mx_Quote#0002</v>
       </c>
       <c r="I15" s="124"/>
       <c r="J15" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00397#0004</v>
+        <v>obj_00392#0003</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="9" t="str">
@@ -3905,7 +3978,7 @@
       </c>
       <c r="M15" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00397#0004</v>
+        <v>obj_00392#0003</v>
       </c>
       <c r="N15" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
@@ -3913,7 +3986,7 @@
       </c>
       <c r="O15" s="97">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M15,Trigger),"--")</f>
-        <v>5.9187594600000008E-3</v>
+        <v>5.9216331499999993E-3</v>
       </c>
       <c r="P15" s="96" t="b">
         <v>1</v>
@@ -3926,26 +3999,26 @@
       </c>
       <c r="S15" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T15" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>42471</v>
+        <v>42474</v>
       </c>
       <c r="V15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Stub</v>
+        <v>Dp</v>
       </c>
       <c r="W15" s="3" t="str">
-        <v>obj_003c9</v>
+        <v>obj_00392</v>
       </c>
       <c r="X15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
-        <v>USD_STUB_Quote</v>
+        <v>USD7MD_Mx_Quote</v>
       </c>
       <c r="Y15" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>5.4752837799999995E-3</v>
+        <v>5.9216331499999993E-3</v>
       </c>
       <c r="Z15" s="103" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -3953,21 +4026,21 @@
       </c>
       <c r="AA15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>42445</v>
+        <v>42474</v>
       </c>
       <c r="AC15" s="68">
-        <v>5.514830228874835E-3</v>
+        <v>5.9352372699968308E-3</v>
       </c>
       <c r="AE15" s="103" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE14,,Trigger),TRUE,Trigger)</f>
-        <v>Z6</v>
-      </c>
-      <c r="AF15" s="281">
-        <v>0</v>
+        <v>H7</v>
+      </c>
+      <c r="AF15" s="278">
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="AH15" s="157"/>
     </row>
@@ -3983,20 +4056,24 @@
         <v>8M</v>
       </c>
       <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="E16" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="60" t="str">
-        <f>_xll.qlLibor(,Currency,C16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0004</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C16="ON","1D",C16),2,Currency,LocalCalendar,E16,TRUE,F16,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00362#0003</v>
       </c>
       <c r="H16" s="121" t="str">
         <f>Mx_Deposits!D17</f>
-        <v>USD8MD_Mx_Quote#0003</v>
+        <v>USD8MD_Mx_Quote#0002</v>
       </c>
       <c r="I16" s="124"/>
       <c r="J16" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0039a#0004</v>
+        <v>obj_00399#0003</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="9" t="str">
@@ -4005,7 +4082,7 @@
       </c>
       <c r="M16" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_0039a#0004</v>
+        <v>obj_00399#0003</v>
       </c>
       <c r="N16" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M16,Trigger),"--")</f>
@@ -4013,7 +4090,7 @@
       </c>
       <c r="O16" s="97">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M16,Trigger),"--")</f>
-        <v>6.4304621599999999E-3</v>
+        <v>6.4704157599999998E-3</v>
       </c>
       <c r="P16" s="96" t="b">
         <v>1</v>
@@ -4026,48 +4103,48 @@
       </c>
       <c r="S16" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M16,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T16" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M16,Trigger),"--")</f>
-        <v>42501</v>
+        <v>42506</v>
       </c>
       <c r="V16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>FUT</v>
+        <v>Dp</v>
       </c>
       <c r="W16" s="3" t="str">
-        <v>obj_003cb</v>
+        <v>obj_00399</v>
       </c>
       <c r="X16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USD8MD_Mx_Quote</v>
       </c>
       <c r="Y16" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>6.1249999999999361E-3</v>
-      </c>
-      <c r="Z16" s="103">
+        <v>6.4704157599999998E-3</v>
+      </c>
+      <c r="Z16" s="103" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AA16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42445</v>
+        <v>42261</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>42537</v>
+        <v>42506</v>
       </c>
       <c r="AC16" s="68">
-        <v>5.7408634375935869E-3</v>
+        <v>6.4863306309705555E-3</v>
       </c>
       <c r="AE16" s="103" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE15,,Trigger),TRUE,Trigger)</f>
-        <v>H7</v>
-      </c>
-      <c r="AF16" s="281">
-        <v>0</v>
+        <v>M7</v>
+      </c>
+      <c r="AF16" s="278">
+        <v>0.02</v>
       </c>
       <c r="AH16" s="157"/>
     </row>
@@ -4083,20 +4160,24 @@
         <v>9M</v>
       </c>
       <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="E17" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="60" t="str">
-        <f>_xll.qlLibor(,Currency,C17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00374#0004</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C17="ON","1D",C17),2,Currency,LocalCalendar,E17,TRUE,F17,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00385#0003</v>
       </c>
       <c r="H17" s="121" t="str">
         <f>Mx_Deposits!D18</f>
-        <v>USD9MD_Mx_Quote#0003</v>
+        <v>USD9MD_Mx_Quote#0002</v>
       </c>
       <c r="I17" s="124"/>
       <c r="J17" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00399#0004</v>
+        <v>obj_0039a#0003</v>
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="9" t="str">
@@ -4105,7 +4186,7 @@
       </c>
       <c r="M17" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00399#0004</v>
+        <v>obj_0039a#0003</v>
       </c>
       <c r="N17" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -4113,7 +4194,7 @@
       </c>
       <c r="O17" s="97">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>6.9933351400000001E-3</v>
+        <v>6.96775E-3</v>
       </c>
       <c r="P17" s="96" t="b">
         <v>1</v>
@@ -4126,48 +4207,48 @@
       </c>
       <c r="S17" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T17" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42534</v>
+        <v>42535</v>
       </c>
       <c r="V17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>FUT</v>
+        <v>Dp</v>
       </c>
       <c r="W17" s="3" t="str">
-        <v>obj_003cc</v>
+        <v>obj_0039a</v>
       </c>
       <c r="X17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USD9MD_Mx_Quote</v>
       </c>
       <c r="Y17" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>7.7250000000000929E-3</v>
-      </c>
-      <c r="Z17" s="103">
+        <v>6.96775E-3</v>
+      </c>
+      <c r="Z17" s="103" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AA17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42536</v>
+        <v>42261</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>42628</v>
+        <v>42535</v>
       </c>
       <c r="AC17" s="68">
-        <v>6.2543396235496202E-3</v>
+        <v>6.9853257793513644E-3</v>
       </c>
       <c r="AE17" s="104" t="str">
         <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE16,,Trigger),TRUE,Trigger)</f>
-        <v>M7</v>
-      </c>
-      <c r="AF17" s="282">
-        <v>0</v>
+        <v>U7</v>
+      </c>
+      <c r="AF17" s="279">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AH17" s="157"/>
     </row>
@@ -4183,20 +4264,24 @@
         <v>10M</v>
       </c>
       <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
+      <c r="E18" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="60" t="str">
-        <f>_xll.qlLibor(,Currency,C18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00351#0004</v>
+        <f>_xll.qlIborIndex(,FamilyName,IF(C18="ON","1D",C18),2,Currency,LocalCalendar,E18,TRUE,F18,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00351#0003</v>
       </c>
       <c r="H18" s="121" t="str">
         <f>Mx_Deposits!D19</f>
-        <v>USD10MD_Mx_Quote#0003</v>
+        <v>USD10MD_Mx_Quote#0002</v>
       </c>
       <c r="I18" s="124"/>
       <c r="J18" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00392#0004</v>
+        <v>obj_00397#0003</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="9" t="str">
@@ -4205,7 +4290,7 @@
       </c>
       <c r="M18" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00392#0004</v>
+        <v>obj_00397#0003</v>
       </c>
       <c r="N18" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
@@ -4213,7 +4298,7 @@
       </c>
       <c r="O18" s="97">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>7.4709243199999999E-3</v>
+        <v>7.4822337000000003E-3</v>
       </c>
       <c r="P18" s="96" t="b">
         <v>1</v>
@@ -4226,41 +4311,41 @@
       </c>
       <c r="S18" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T18" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42565</v>
       </c>
       <c r="V18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>FUT</v>
+        <v>Stub</v>
       </c>
       <c r="W18" s="3" t="str">
-        <v>obj_003cd</v>
+        <v>obj_003c5</v>
       </c>
       <c r="X18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USD_STUB_Quote</v>
       </c>
       <c r="Y18" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>9.5250000000000057E-3</v>
-      </c>
-      <c r="Z18" s="103">
+        <v>6.98489946E-3</v>
+      </c>
+      <c r="Z18" s="103" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AA18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42634</v>
+        <v>42261</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>42725</v>
+        <v>42536</v>
       </c>
       <c r="AC18" s="68">
-        <v>6.9468879094897905E-3</v>
+        <v>7.0025233416574958E-3</v>
       </c>
       <c r="AH18" s="157"/>
     </row>
@@ -4275,21 +4360,25 @@
         <f t="shared" si="3"/>
         <v>11M</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="60" t="str">
-        <f>_xll.qlLibor(,Currency,C19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0004</v>
+      <c r="D19" s="258"/>
+      <c r="E19" s="259" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="259" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="259" t="str">
+        <f>_xll.qlIborIndex(,FamilyName,IF(C19="ON","1D",C19),2,Currency,LocalCalendar,E19,TRUE,F19,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00355#0003</v>
       </c>
       <c r="H19" s="121" t="str">
         <f>Mx_Deposits!D20</f>
-        <v>USD11MD_Mx_Quote#0003</v>
+        <v>USD11MD_Mx_Quote#0002</v>
       </c>
       <c r="I19" s="124"/>
       <c r="J19" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H19,G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00393#0004</v>
+        <v>obj_00394#0003</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
@@ -4298,7 +4387,7 @@
       </c>
       <c r="M19" s="93" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00393#0004</v>
+        <v>obj_00394#0003</v>
       </c>
       <c r="N19" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
@@ -4306,7 +4395,7 @@
       </c>
       <c r="O19" s="97">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>7.9996837799999991E-3</v>
+        <v>8.0310163000000007E-3</v>
       </c>
       <c r="P19" s="96" t="b">
         <v>1</v>
@@ -4319,41 +4408,41 @@
       </c>
       <c r="S19" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T19" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>42593</v>
+        <v>42597</v>
       </c>
       <c r="V19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W19" s="3" t="str">
-        <v>obj_003ce</v>
+        <v>obj_003c7</v>
       </c>
       <c r="X19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
-        <v>USDFUT3MZ6_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="Y19" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>1.1425000000000018E-2</v>
+        <v>7.6760000000000925E-3</v>
       </c>
       <c r="Z19" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
-        <v>0</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="AA19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42725</v>
+        <v>42536</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>42815</v>
+        <v>42628</v>
       </c>
       <c r="AC19" s="68">
-        <v>7.6907614374250389E-3</v>
+        <v>7.1940778510902878E-3</v>
       </c>
       <c r="AH19" s="157"/>
     </row>
@@ -4368,21 +4457,25 @@
         <f t="shared" si="3"/>
         <v>1Y</v>
       </c>
-      <c r="D20" s="272"/>
-      <c r="E20" s="272"/>
-      <c r="F20" s="272"/>
-      <c r="G20" s="273" t="str">
-        <f>Currency&amp;FamilyName&amp;C20</f>
-        <v>USDLibor1Y</v>
-      </c>
-      <c r="H20" s="274" t="str">
+      <c r="D20" s="125"/>
+      <c r="E20" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f>_xll.qlIborIndex(,FamilyName,IF(C20="ON","1D",C20),2,Currency,LocalCalendar,E20,TRUE,F20,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_003dd#0001</v>
+      </c>
+      <c r="H20" s="273" t="str">
         <f>Mx_Deposits!D21</f>
-        <v>USD1YD_Mx_Quote#0003</v>
+        <v>USD1YD_Mx_Quote#0002</v>
       </c>
       <c r="I20" s="272"/>
-      <c r="J20" s="275" t="str">
+      <c r="J20" s="274" t="str">
         <f>_xll.qlDepositRateHelper(,H20,G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00394#0004</v>
+        <v>obj_00395#0003</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="9" t="str">
@@ -4391,7 +4484,7 @@
       </c>
       <c r="M20" s="93" t="str">
         <f>IF(ISBLANK(J20),"--",J20)</f>
-        <v>obj_00394#0004</v>
+        <v>obj_00395#0003</v>
       </c>
       <c r="N20" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
@@ -4412,41 +4505,41 @@
       </c>
       <c r="S20" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T20" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>42625</v>
+        <v>42627</v>
       </c>
       <c r="V20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W20" s="3" t="str">
-        <v>obj_003cf</v>
+        <v>obj_003c8</v>
       </c>
       <c r="X20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
-        <v>USDFUT3MH7_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="Y20" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>1.2925000000000075E-2</v>
+        <v>9.395999999999901E-3</v>
       </c>
       <c r="Z20" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
-        <v>0</v>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="AA20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42809</v>
+        <v>42634</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>42901</v>
+        <v>42725</v>
       </c>
       <c r="AC20" s="68">
-        <v>8.4173573361468676E-3</v>
+        <v>7.6690763806767769E-3</v>
       </c>
       <c r="AH20" s="157"/>
     </row>
@@ -4457,7 +4550,7 @@
       <c r="B21" s="110"/>
       <c r="C21" s="112" t="str">
         <f>(_xll.qlCalendarBusinessDaysBetween(Calendar,Settlementdate,E24,Trigger)-1)&amp;"D"</f>
-        <v>130D</v>
+        <v>190D</v>
       </c>
       <c r="D21" s="112" t="b">
         <v>0</v>
@@ -4471,12 +4564,12 @@
       <c r="G21" s="123"/>
       <c r="H21" s="120" t="str">
         <f>Mx_Deposits!D22</f>
-        <v>USD_STUB_Quote#0003</v>
+        <v>USD_STUB_Quote#0002</v>
       </c>
       <c r="I21" s="123"/>
       <c r="J21" s="113" t="str">
         <f>_xll.qlDepositRateHelper2(,H21,C21,2,Calendar,E21,D21,F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c9#0004</v>
+        <v>obj_003c5#0004</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="10" t="str">
@@ -4485,7 +4578,7 @@
       </c>
       <c r="M21" s="94" t="str">
         <f t="shared" ref="M21" si="7">IF(ISBLANK(J21),"--",J21)</f>
-        <v>obj_003c9#0004</v>
+        <v>obj_003c5#0004</v>
       </c>
       <c r="N21" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
@@ -4493,7 +4586,7 @@
       </c>
       <c r="O21" s="100">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M21,Trigger),"--")</f>
-        <v>5.4752837799999995E-3</v>
+        <v>6.98489946E-3</v>
       </c>
       <c r="P21" s="99" t="b">
         <v>1</v>
@@ -4506,41 +4599,41 @@
       </c>
       <c r="S21" s="101">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T21" s="101">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="V21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W21" s="3" t="str">
-        <v>obj_003d0</v>
+        <v>obj_003c9</v>
       </c>
       <c r="X21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
-        <v>USDFUT3MM7_Quote</v>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="Y21" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>1.4474999999999905E-2</v>
+        <v>1.1211999999999918E-2</v>
       </c>
       <c r="Z21" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
-        <v>0</v>
+        <v>1.13E-4</v>
       </c>
       <c r="AA21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42907</v>
+        <v>42725</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>42999</v>
+        <v>42815</v>
       </c>
       <c r="AC21" s="68">
-        <v>9.2327077225652105E-3</v>
+        <v>8.2630672980861866E-3</v>
       </c>
       <c r="AH21" s="157"/>
     </row>
@@ -4556,15 +4649,15 @@
       </c>
       <c r="M22" s="131" t="str">
         <f>IF(ISBLANK(J27),"--",J27)</f>
-        <v>obj_003c5#0013</v>
+        <v>obj_003cd#0005</v>
       </c>
       <c r="N22" s="144" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M22,Trigger),"--")</f>
         <v>USDFUT3MU5_Quote</v>
       </c>
-      <c r="O22" s="277">
+      <c r="O22" s="276">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M22,Trigger),"--")</f>
-        <v>99.658749999999998</v>
+        <v>99.661249999999995</v>
       </c>
       <c r="P22" s="132" t="b">
         <f>IF($T$21&gt;S22,FALSE,TRUE)</f>
@@ -4586,33 +4679,33 @@
       </c>
       <c r="V22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Sw</v>
+        <v>FUT</v>
       </c>
       <c r="W22" s="3" t="str">
-        <v>obj_003ab</v>
+        <v>obj_003ca</v>
       </c>
       <c r="X22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
-        <v>USD_CURVE_3M_3Y_Quote</v>
+        <v>USDFUT3MH7_Quote</v>
       </c>
       <c r="Y22" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>1.1430000000000001E-2</v>
+        <v>1.2673999999999975E-2</v>
       </c>
       <c r="Z22" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
-        <v>0</v>
+        <v>1.5100000000000001E-4</v>
       </c>
       <c r="AA22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42258</v>
+        <v>42809</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>43354</v>
+        <v>42901</v>
       </c>
       <c r="AC22" s="68">
-        <v>1.1545204762228868E-2</v>
+        <v>8.8814385679964122E-3</v>
       </c>
       <c r="AH22" s="157"/>
     </row>
@@ -4636,7 +4729,7 @@
       </c>
       <c r="M23" s="93" t="str">
         <f t="shared" ref="M23:M43" si="9">IF(ISBLANK(J28),"--",J28)</f>
-        <v>obj_003c7#0009</v>
+        <v>obj_003cc#0005</v>
       </c>
       <c r="N23" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
@@ -4666,33 +4759,33 @@
       </c>
       <c r="V23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Sw</v>
+        <v>FUT</v>
       </c>
       <c r="W23" s="3" t="str">
-        <v>obj_003a7</v>
+        <v>obj_003d1</v>
       </c>
       <c r="X23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
-        <v>USD_CURVE_3M_4Y_Quote</v>
+        <v>USDFUT3MM7_Quote</v>
       </c>
       <c r="Y23" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>1.3849999999999999E-2</v>
+        <v>1.4125000000000032E-2</v>
       </c>
       <c r="Z23" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AA23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42258</v>
+        <v>42907</v>
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>43719</v>
+        <v>42999</v>
       </c>
       <c r="AC23" s="68">
-        <v>1.4016781744870508E-2</v>
+        <v>9.5907536955777296E-3</v>
       </c>
       <c r="AH23" s="157"/>
     </row>
@@ -4701,12 +4794,12 @@
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="112" t="str">
-        <f>_xll.qlIMMNextCode(_xll.qlIMMNextCode(_xll.qlIMMNextCode(Evaluationdate,TRUE,),TRUE,),TRUE,)</f>
-        <v>H6</v>
-      </c>
-      <c r="E24" s="276">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMNextCode(_xll.qlIMMNextCode(Settlementdate+2,TRUE,),TRUE,),TRUE,)</f>
+        <v>M6</v>
+      </c>
+      <c r="E24" s="275">
         <f>_xll.qlIMMdate(D24,,Trigger)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
@@ -4719,7 +4812,7 @@
       </c>
       <c r="M24" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003c6#0009</v>
+        <v>obj_003cb#0005</v>
       </c>
       <c r="N24" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M24,Trigger),"--")</f>
@@ -4727,7 +4820,7 @@
       </c>
       <c r="O24" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M24,Trigger),"--")</f>
-        <v>99.557500000000005</v>
+        <v>99.564999999999998</v>
       </c>
       <c r="P24" s="96" t="b">
         <f t="shared" si="10"/>
@@ -4749,33 +4842,33 @@
       </c>
       <c r="V24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Sw</v>
+        <v>FUT</v>
       </c>
       <c r="W24" s="3" t="str">
-        <v>obj_003a0</v>
+        <v>obj_003ce</v>
       </c>
       <c r="X24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
-        <v>USD_CURVE_3M_5Y_Quote</v>
+        <v>USDFUT3MU7_Quote</v>
       </c>
       <c r="Y24" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>1.5910000000000001E-2</v>
+        <v>1.5474999999999878E-2</v>
       </c>
       <c r="Z24" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
-        <v>0</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="AA24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42258</v>
+        <v>42998</v>
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>44085</v>
+        <v>43089</v>
       </c>
       <c r="AC24" s="68">
-        <v>1.6136297198253845E-2</v>
+        <v>1.0248057190830681E-2</v>
       </c>
       <c r="AH24" s="157"/>
     </row>
@@ -4796,7 +4889,7 @@
       </c>
       <c r="M25" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003c8#0009</v>
+        <v>obj_003d0#0005</v>
       </c>
       <c r="N25" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M25,Trigger),"--")</f>
@@ -4804,7 +4897,7 @@
       </c>
       <c r="O25" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M25,Trigger),"--")</f>
-        <v>99.522500000000008</v>
+        <v>99.527500000000003</v>
       </c>
       <c r="P25" s="96" t="b">
         <f t="shared" si="10"/>
@@ -4829,15 +4922,15 @@
         <v>Sw</v>
       </c>
       <c r="W25" s="3" t="str">
-        <v>obj_003a9</v>
+        <v>obj_003b6</v>
       </c>
       <c r="X25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
-        <v>USD_CURVE_3M_6Y_Quote</v>
+        <v>USD_CURVE_3M_3Y_Quote</v>
       </c>
       <c r="Y25" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>1.7690000000000001E-2</v>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="Z25" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
@@ -4845,14 +4938,14 @@
       </c>
       <c r="AA25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>44452</v>
+        <v>43357</v>
       </c>
       <c r="AC25" s="68">
-        <v>1.7983488093830761E-2</v>
+        <v>1.1471622382138403E-2</v>
       </c>
       <c r="AH25" s="157"/>
     </row>
@@ -4888,7 +4981,7 @@
       </c>
       <c r="M26" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003ca#0009</v>
+        <v>obj_003cf#0005</v>
       </c>
       <c r="N26" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M26,Trigger),"--")</f>
@@ -4896,7 +4989,7 @@
       </c>
       <c r="O26" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M26,Trigger),"--")</f>
-        <v>99.477499999999992</v>
+        <v>99.467500000000001</v>
       </c>
       <c r="P26" s="96" t="b">
         <f t="shared" si="10"/>
@@ -4921,15 +5014,15 @@
         <v>Sw</v>
       </c>
       <c r="W26" s="3" t="str">
-        <v>obj_003bc</v>
+        <v>obj_003a4</v>
       </c>
       <c r="X26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
-        <v>USD_CURVE_3M_7Y_Quote</v>
+        <v>USD_CURVE_3M_4Y_Quote</v>
       </c>
       <c r="Y26" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>1.915E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="Z26" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
@@ -4937,14 +5030,14 @@
       </c>
       <c r="AA26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>44816</v>
+        <v>43724</v>
       </c>
       <c r="AC26" s="68">
-        <v>1.9511570889379288E-2</v>
+        <v>1.3944133301100047E-2</v>
       </c>
       <c r="AH26" s="157"/>
     </row>
@@ -4971,12 +5064,12 @@
         <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="I27" s="117">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C27,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" ref="I27:I48" si="13">IFERROR(INDEX($AF$12:$AF$17,MATCH(C27,$AE$12:$AE$17,0))/100,0)</f>
         <v>0</v>
       </c>
       <c r="J27" s="57" t="str">
         <f>_xll.qlFuturesRateHelper(,H27,$H$25,C27,G27,I27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c5#0013</v>
+        <v>obj_003cd#0005</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="9" t="str">
@@ -4985,7 +5078,7 @@
       </c>
       <c r="M27" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003cb#0009</v>
+        <v>obj_003c6#0005</v>
       </c>
       <c r="N27" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M27,Trigger),"--")</f>
@@ -4997,7 +5090,7 @@
       </c>
       <c r="P27" s="96" t="b">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="93">
         <v>30</v>
@@ -5018,15 +5111,15 @@
         <v>Sw</v>
       </c>
       <c r="W27" s="3" t="str">
-        <v>obj_003b4</v>
+        <v>obj_003a3</v>
       </c>
       <c r="X27" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
-        <v>USD_CURVE_3M_8Y_Quote</v>
+        <v>USD_CURVE_3M_5Y_Quote</v>
       </c>
       <c r="Y27" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W27,Trigger),"")</f>
-        <v>2.0369999999999999E-2</v>
+        <v>1.585E-2</v>
       </c>
       <c r="Z27" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W27)),_xll.qlSwapRateHelperSpread($W27))</f>
@@ -5034,14 +5127,14 @@
       </c>
       <c r="AA27" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W27,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB27" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
-        <v>45180</v>
+        <v>44088</v>
       </c>
       <c r="AC27" s="68">
-        <v>2.0799149011611076E-2</v>
+        <v>1.6054823193173386E-2</v>
       </c>
       <c r="AH27" s="157"/>
     </row>
@@ -5068,12 +5161,12 @@
         <v>USDFUT3MV5_Quote</v>
       </c>
       <c r="I28" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C28,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J28" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H28,$H$25,C28,G28,I28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c7#0009</v>
+        <v>obj_003cc#0005</v>
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="9" t="str">
@@ -5082,7 +5175,7 @@
       </c>
       <c r="M28" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003cc#0009</v>
+        <v>obj_003c7#0005</v>
       </c>
       <c r="N28" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M28,Trigger),"--")</f>
@@ -5115,15 +5208,15 @@
         <v>Sw</v>
       </c>
       <c r="W28" s="3" t="str">
-        <v>obj_003b0</v>
+        <v>obj_003ad</v>
       </c>
       <c r="X28" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
-        <v>USD_CURVE_3M_9Y_Quote</v>
+        <v>USD_CURVE_3M_6Y_Quote</v>
       </c>
       <c r="Y28" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W28,Trigger),"")</f>
-        <v>2.137E-2</v>
+        <v>1.763E-2</v>
       </c>
       <c r="Z28" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W28)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W28)),_xll.qlSwapRateHelperSpread($W28))</f>
@@ -5131,14 +5224,14 @@
       </c>
       <c r="AA28" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W28,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB28" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
-        <v>45546</v>
+        <v>44453</v>
       </c>
       <c r="AC28" s="68">
-        <v>2.1861641828722852E-2</v>
+        <v>1.7903395737317983E-2</v>
       </c>
       <c r="AH28" s="157"/>
     </row>
@@ -5165,12 +5258,12 @@
         <v>USDFUT3MX5_Quote</v>
       </c>
       <c r="I29" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C29,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J29" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H29,$H$25,C29,G29,I29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c6#0009</v>
+        <v>obj_003cb#0005</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="9" t="str">
@@ -5179,7 +5272,7 @@
       </c>
       <c r="M29" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003cd#0009</v>
+        <v>obj_003c8#0005</v>
       </c>
       <c r="N29" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M29,Trigger),"--")</f>
@@ -5187,7 +5280,7 @@
       </c>
       <c r="O29" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M29,Trigger),"--")</f>
-        <v>99.047499999999999</v>
+        <v>99.052500000000009</v>
       </c>
       <c r="P29" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5212,15 +5305,15 @@
         <v>Sw</v>
       </c>
       <c r="W29" s="3" t="str">
-        <v>obj_003b5</v>
+        <v>obj_003a2</v>
       </c>
       <c r="X29" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W29,Trigger),"")</f>
-        <v>USD_CURVE_3M_10Y_Quote</v>
+        <v>USD_CURVE_3M_7Y_Quote</v>
       </c>
       <c r="Y29" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W29,Trigger),"")</f>
-        <v>2.2200000000000001E-2</v>
+        <v>1.9119999999999998E-2</v>
       </c>
       <c r="Z29" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W29)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W29)),_xll.qlSwapRateHelperSpread($W29))</f>
@@ -5228,14 +5321,14 @@
       </c>
       <c r="AA29" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W29,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB29" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W29,Trigger),"")</f>
-        <v>45911</v>
+        <v>44818</v>
       </c>
       <c r="AC29" s="68">
-        <v>2.2749624938976504E-2</v>
+        <v>1.9464312674873918E-2</v>
       </c>
       <c r="AH29" s="157"/>
     </row>
@@ -5262,12 +5355,12 @@
         <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="I30" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C30,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J30" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H30,$H$25,C30,G30,I30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c8#0009</v>
+        <v>obj_003d0#0005</v>
       </c>
       <c r="K30" s="48"/>
       <c r="L30" s="9" t="str">
@@ -5276,7 +5369,7 @@
       </c>
       <c r="M30" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003ce#0009</v>
+        <v>obj_003c9#0005</v>
       </c>
       <c r="N30" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M30,Trigger),"--")</f>
@@ -5284,7 +5377,7 @@
       </c>
       <c r="O30" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M30,Trigger),"--")</f>
-        <v>98.857500000000002</v>
+        <v>98.867500000000007</v>
       </c>
       <c r="P30" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5309,15 +5402,15 @@
         <v>Sw</v>
       </c>
       <c r="W30" s="3" t="str">
-        <v>obj_003a6</v>
+        <v>obj_003a1</v>
       </c>
       <c r="X30" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W30,Trigger),"")</f>
-        <v>USD_CURVE_3M_11Y_Quote</v>
+        <v>USD_CURVE_3M_8Y_Quote</v>
       </c>
       <c r="Y30" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W30,Trigger),"")</f>
-        <v>2.2917710939999999E-2</v>
+        <v>2.035E-2</v>
       </c>
       <c r="Z30" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W30)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W30)),_xll.qlSwapRateHelperSpread($W30))</f>
@@ -5325,14 +5418,14 @@
       </c>
       <c r="AA30" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W30,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB30" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W30,Trigger),"")</f>
-        <v>46276</v>
+        <v>45183</v>
       </c>
       <c r="AC30" s="68">
-        <v>2.3523712379542334E-2</v>
+        <v>2.0763450652685079E-2</v>
       </c>
       <c r="AH30" s="157"/>
     </row>
@@ -5359,12 +5452,12 @@
         <v>USDFUT3MF6_Quote</v>
       </c>
       <c r="I31" s="119">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C31,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>_xll.qlFuturesRateHelper(,H31,$H$25,C31,G31,I31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ca#0009</v>
+        <v>obj_003cf#0005</v>
       </c>
       <c r="K31" s="48"/>
       <c r="L31" s="9" t="str">
@@ -5373,7 +5466,7 @@
       </c>
       <c r="M31" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003cf#0009</v>
+        <v>obj_003ca#0005</v>
       </c>
       <c r="N31" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M31,Trigger),"--")</f>
@@ -5381,7 +5474,7 @@
       </c>
       <c r="O31" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M31,Trigger),"--")</f>
-        <v>98.707499999999996</v>
+        <v>98.717500000000001</v>
       </c>
       <c r="P31" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5406,15 +5499,15 @@
         <v>Sw</v>
       </c>
       <c r="W31" s="3" t="str">
-        <v>obj_003b7</v>
+        <v>obj_003ae</v>
       </c>
       <c r="X31" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W31,Trigger),"")</f>
-        <v>USD_CURVE_3M_12Y_Quote</v>
+        <v>USD_CURVE_3M_9Y_Quote</v>
       </c>
       <c r="Y31" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W31,Trigger),"")</f>
-        <v>2.3530000000000002E-2</v>
+        <v>2.1349999999999997E-2</v>
       </c>
       <c r="Z31" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W31)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W31)),_xll.qlSwapRateHelperSpread($W31))</f>
@@ -5422,14 +5515,14 @@
       </c>
       <c r="AA31" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W31,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB31" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W31,Trigger),"")</f>
-        <v>46643</v>
+        <v>45551</v>
       </c>
       <c r="AC31" s="68">
-        <v>2.4187972032267826E-2</v>
+        <v>2.1826430198868277E-2</v>
       </c>
       <c r="AH31" s="157"/>
     </row>
@@ -5456,12 +5549,12 @@
         <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="I32" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C32,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J32" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H32,$H$25,C32,G32,I32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cb#0009</v>
+        <v>obj_003c6#0005</v>
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="9" t="str">
@@ -5470,7 +5563,7 @@
       </c>
       <c r="M32" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d0#0009</v>
+        <v>obj_003d1#0005</v>
       </c>
       <c r="N32" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M32,Trigger),"--")</f>
@@ -5478,7 +5571,7 @@
       </c>
       <c r="O32" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M32,Trigger),"--")</f>
-        <v>98.552500000000009</v>
+        <v>98.567499999999995</v>
       </c>
       <c r="P32" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5503,15 +5596,15 @@
         <v>Sw</v>
       </c>
       <c r="W32" s="3" t="str">
-        <v>obj_003a2</v>
+        <v>obj_003a6</v>
       </c>
       <c r="X32" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W32,Trigger),"")</f>
-        <v>USD_CURVE_3M_13Y_Quote</v>
+        <v>USD_CURVE_3M_10Y_Quote</v>
       </c>
       <c r="Y32" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W32,Trigger),"")</f>
-        <v>2.4029802130000003E-2</v>
+        <v>2.2179999999999998E-2</v>
       </c>
       <c r="Z32" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W32)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W32)),_xll.qlSwapRateHelperSpread($W32))</f>
@@ -5519,14 +5612,14 @@
       </c>
       <c r="AA32" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W32,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB32" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W32,Trigger),"")</f>
-        <v>47007</v>
+        <v>45915</v>
       </c>
       <c r="AC32" s="68">
-        <v>2.4731630105862195E-2</v>
+        <v>2.2715524648344941E-2</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5552,12 +5645,12 @@
         <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="I33" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C33,$AE$12:$AE$17,0))/100,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="J33" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H33,$H$25,C33,G33,I33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cc#0009</v>
+        <v>obj_003c7#0005</v>
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="9" t="str">
@@ -5566,7 +5659,7 @@
       </c>
       <c r="M33" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d1#0009</v>
+        <v>obj_003ce#0005</v>
       </c>
       <c r="N33" s="145" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M33,Trigger),"--")</f>
@@ -5574,7 +5667,7 @@
       </c>
       <c r="O33" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M33,Trigger),"--")</f>
-        <v>98.412499999999994</v>
+        <v>98.427500000000009</v>
       </c>
       <c r="P33" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5599,15 +5692,15 @@
         <v>Sw</v>
       </c>
       <c r="W33" s="3" t="str">
-        <v>obj_003af</v>
+        <v>obj_003ba</v>
       </c>
       <c r="X33" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W33,Trigger),"")</f>
-        <v>USD_CURVE_3M_14Y_Quote</v>
+        <v>USD_CURVE_3M_11Y_Quote</v>
       </c>
       <c r="Y33" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W33,Trigger),"")</f>
-        <v>2.4446480909999999E-2</v>
+        <v>2.2889750189999999E-2</v>
       </c>
       <c r="Z33" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W33)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W33)),_xll.qlSwapRateHelperSpread($W33))</f>
@@ -5615,14 +5708,14 @@
       </c>
       <c r="AA33" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W33,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB33" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W33,Trigger),"")</f>
-        <v>47372</v>
+        <v>46279</v>
       </c>
       <c r="AC33" s="68">
-        <v>2.5185302038835605E-2</v>
+        <v>2.3481470177550621E-2</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5648,12 +5741,12 @@
         <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="I34" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C34,$AE$12:$AE$17,0))/100,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="J34" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H34,$H$25,C34,G34,I34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cd#0009</v>
+        <v>obj_003c8#0005</v>
       </c>
       <c r="K34" s="48"/>
       <c r="L34" s="9" t="str">
@@ -5662,7 +5755,7 @@
       </c>
       <c r="M34" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d2#0009</v>
+        <v>obj_003d2#0005</v>
       </c>
       <c r="N34" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M34,Trigger),"--")</f>
@@ -5670,7 +5763,7 @@
       </c>
       <c r="O34" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M34,Trigger),"--")</f>
-        <v>98.277500000000003</v>
+        <v>98.292500000000004</v>
       </c>
       <c r="P34" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5695,15 +5788,15 @@
         <v>Sw</v>
       </c>
       <c r="W34" s="3" t="str">
-        <v>obj_003b6</v>
+        <v>obj_003af</v>
       </c>
       <c r="X34" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W34,Trigger),"")</f>
-        <v>USD_CURVE_3M_15Y_Quote</v>
+        <v>USD_CURVE_3M_12Y_Quote</v>
       </c>
       <c r="Y34" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W34,Trigger),"")</f>
-        <v>2.4799999999999999E-2</v>
+        <v>2.349E-2</v>
       </c>
       <c r="Z34" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W34)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W34)),_xll.qlSwapRateHelperSpread($W34))</f>
@@ -5711,14 +5804,14 @@
       </c>
       <c r="AA34" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W34,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB34" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W34,Trigger),"")</f>
-        <v>47737</v>
+        <v>46644</v>
       </c>
       <c r="AC34" s="68">
-        <v>2.5570789682346405E-2</v>
+        <v>2.4132814141436584E-2</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5744,12 +5837,12 @@
         <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="I35" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C35,$AE$12:$AE$17,0))/100,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1.13E-4</v>
       </c>
       <c r="J35" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H35,$H$25,C35,G35,I35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ce#0009</v>
+        <v>obj_003c9#0005</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="9" t="str">
@@ -5758,7 +5851,7 @@
       </c>
       <c r="M35" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d3#0009</v>
+        <v>obj_003d3#0005</v>
       </c>
       <c r="N35" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M35,Trigger),"--")</f>
@@ -5766,7 +5859,7 @@
       </c>
       <c r="O35" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M35,Trigger),"--")</f>
-        <v>98.16</v>
+        <v>98.177500000000009</v>
       </c>
       <c r="P35" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5787,19 +5880,19 @@
         <v>43272</v>
       </c>
       <c r="V35" s="3" t="str">
-        <f t="shared" ref="V35:V71" si="13">IFERROR(INDEX($L$3:$L$80,MATCH(X35,$N$3:$N$80,0),1),"")</f>
+        <f t="shared" ref="V35:V71" si="14">IFERROR(INDEX($L$3:$L$80,MATCH(X35,$N$3:$N$80,0),1),"")</f>
         <v>Sw</v>
       </c>
       <c r="W35" s="3" t="str">
-        <v>obj_003aa</v>
+        <v>obj_003ac</v>
       </c>
       <c r="X35" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W35,Trigger),"")</f>
-        <v>USD_CURVE_3M_16Y_Quote</v>
+        <v>USD_CURVE_3M_13Y_Quote</v>
       </c>
       <c r="Y35" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W35,Trigger),"")</f>
-        <v>2.5105371290000001E-2</v>
+        <v>2.398862823E-2</v>
       </c>
       <c r="Z35" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W35)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W35)),_xll.qlSwapRateHelperSpread($W35))</f>
@@ -5807,14 +5900,14 @@
       </c>
       <c r="AA35" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W35,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB35" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W35,Trigger),"")</f>
-        <v>48102</v>
+        <v>47010</v>
       </c>
       <c r="AC35" s="68">
-        <v>2.5904523162617141E-2</v>
+        <v>2.4675333328254279E-2</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5840,12 +5933,12 @@
         <v>USDFUT3MH7_Quote</v>
       </c>
       <c r="I36" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C36,$AE$12:$AE$17,0))/100,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1.5100000000000001E-4</v>
       </c>
       <c r="J36" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H36,$H$25,C36,G36,I36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cf#0009</v>
+        <v>obj_003ca#0005</v>
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="9" t="str">
@@ -5854,7 +5947,7 @@
       </c>
       <c r="M36" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d4#0009</v>
+        <v>obj_003d4#0005</v>
       </c>
       <c r="N36" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M36,Trigger),"--")</f>
@@ -5862,7 +5955,7 @@
       </c>
       <c r="O36" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M36,Trigger),"--")</f>
-        <v>98.045000000000002</v>
+        <v>98.0625</v>
       </c>
       <c r="P36" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5883,19 +5976,19 @@
         <v>43363</v>
       </c>
       <c r="V36" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W36" s="3" t="str">
-        <v>obj_003ba</v>
+        <v>obj_003aa</v>
       </c>
       <c r="X36" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W36,Trigger),"")</f>
-        <v>USD_CURVE_3M_17Y_Quote</v>
+        <v>USD_CURVE_3M_14Y_Quote</v>
       </c>
       <c r="Y36" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W36,Trigger),"")</f>
-        <v>2.5372498539999996E-2</v>
+        <v>2.4404396179999999E-2</v>
       </c>
       <c r="Z36" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W36)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W36)),_xll.qlSwapRateHelperSpread($W36))</f>
@@ -5903,14 +5996,14 @@
       </c>
       <c r="AA36" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W36,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB36" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W36,Trigger),"")</f>
-        <v>48470</v>
+        <v>47375</v>
       </c>
       <c r="AC36" s="68">
-        <v>2.619671190548941E-2</v>
+        <v>2.5128597391486329E-2</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5936,12 +6029,12 @@
         <v>USDFUT3MM7_Quote</v>
       </c>
       <c r="I37" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C37,$AE$12:$AE$17,0))/100,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J37" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H37,$H$25,C37,G37,I37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d0#0009</v>
+        <v>obj_003d1#0005</v>
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="9" t="str">
@@ -5950,7 +6043,7 @@
       </c>
       <c r="M37" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d5#0009</v>
+        <v>obj_003d5#0005</v>
       </c>
       <c r="N37" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M37,Trigger),"--")</f>
@@ -5958,7 +6051,7 @@
       </c>
       <c r="O37" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M37,Trigger),"--")</f>
-        <v>97.9375</v>
+        <v>97.957499999999996</v>
       </c>
       <c r="P37" s="96" t="b">
         <f t="shared" si="10"/>
@@ -5979,19 +6072,19 @@
         <v>43453</v>
       </c>
       <c r="V37" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W37" s="3" t="str">
-        <v>obj_003bb</v>
+        <v>obj_003ab</v>
       </c>
       <c r="X37" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W37,Trigger),"")</f>
-        <v>USD_CURVE_3M_18Y_Quote</v>
+        <v>USD_CURVE_3M_15Y_Quote</v>
       </c>
       <c r="Y37" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W37,Trigger),"")</f>
-        <v>2.5601316209999999E-2</v>
+        <v>2.4760000000000001E-2</v>
       </c>
       <c r="Z37" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W37)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W37)),_xll.qlSwapRateHelperSpread($W37))</f>
@@ -5999,14 +6092,14 @@
       </c>
       <c r="AA37" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W37,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB37" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W37,Trigger),"")</f>
-        <v>48834</v>
+        <v>47742</v>
       </c>
       <c r="AC37" s="68">
-        <v>2.6447116270872352E-2</v>
+        <v>2.5516905238108706E-2</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6032,12 +6125,12 @@
         <v>USDFUT3MU7_Quote</v>
       </c>
       <c r="I38" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C38,$AE$12:$AE$17,0))/100,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="J38" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H38,$H$25,C38,G38,I38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d1#0009</v>
+        <v>obj_003ce#0005</v>
       </c>
       <c r="K38" s="48"/>
       <c r="L38" s="9" t="str">
@@ -6046,7 +6139,7 @@
       </c>
       <c r="M38" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d6#0009</v>
+        <v>obj_003d6#0005</v>
       </c>
       <c r="N38" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M38,Trigger),"--")</f>
@@ -6054,7 +6147,7 @@
       </c>
       <c r="O38" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M38,Trigger),"--")</f>
-        <v>97.832499999999996</v>
+        <v>97.852499999999992</v>
       </c>
       <c r="P38" s="96" t="b">
         <f t="shared" si="10"/>
@@ -6075,19 +6168,19 @@
         <v>43543</v>
       </c>
       <c r="V38" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W38" s="3" t="str">
-        <v>obj_003a1</v>
+        <v>obj_003b2</v>
       </c>
       <c r="X38" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W38,Trigger),"")</f>
-        <v>USD_CURVE_3M_19Y_Quote</v>
+        <v>USD_CURVE_3M_16Y_Quote</v>
       </c>
       <c r="Y38" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W38,Trigger),"")</f>
-        <v>2.5799222510000001E-2</v>
+        <v>2.50641261E-2</v>
       </c>
       <c r="Z38" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W38)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W38)),_xll.qlSwapRateHelperSpread($W38))</f>
@@ -6095,14 +6188,14 @@
       </c>
       <c r="AA38" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W38,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB38" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W38,Trigger),"")</f>
-        <v>49198</v>
+        <v>48106</v>
       </c>
       <c r="AC38" s="68">
-        <v>2.6663117385032763E-2</v>
+        <v>2.5849900837420926E-2</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6128,12 +6221,12 @@
         <v>USDFUT3MZ7_Quote</v>
       </c>
       <c r="I39" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C39,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J39" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H39,$H$25,C39,G39,I39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d2#0009</v>
+        <v>obj_003d2#0005</v>
       </c>
       <c r="K39" s="48"/>
       <c r="L39" s="9" t="str">
@@ -6142,7 +6235,7 @@
       </c>
       <c r="M39" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d7#0009</v>
+        <v>obj_003d7#0005</v>
       </c>
       <c r="N39" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M39,Trigger),"--")</f>
@@ -6150,7 +6243,7 @@
       </c>
       <c r="O39" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M39,Trigger),"--")</f>
-        <v>97.742500000000007</v>
+        <v>97.762500000000003</v>
       </c>
       <c r="P39" s="96" t="b">
         <f t="shared" si="10"/>
@@ -6171,19 +6264,19 @@
         <v>43636</v>
       </c>
       <c r="V39" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W39" s="3" t="str">
-        <v>obj_003b8</v>
+        <v>obj_003be</v>
       </c>
       <c r="X39" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W39,Trigger),"")</f>
-        <v>USD_CURVE_3M_20Y_Quote</v>
+        <v>USD_CURVE_3M_17Y_Quote</v>
       </c>
       <c r="Y39" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W39,Trigger),"")</f>
-        <v>2.597E-2</v>
+        <v>2.5328148800000002E-2</v>
       </c>
       <c r="Z39" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W39)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W39)),_xll.qlSwapRateHelperSpread($W39))</f>
@@ -6191,14 +6284,14 @@
       </c>
       <c r="AA39" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W39,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB39" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W39,Trigger),"")</f>
-        <v>49563</v>
+        <v>48471</v>
       </c>
       <c r="AC39" s="68">
-        <v>2.6848358925559597E-2</v>
+        <v>2.6139254220300636E-2</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6224,12 +6317,12 @@
         <v>USDFUT3MH8_Quote</v>
       </c>
       <c r="I40" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C40,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J40" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H40,$H$25,C40,G40,I40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d3#0009</v>
+        <v>obj_003d3#0005</v>
       </c>
       <c r="K40" s="48"/>
       <c r="L40" s="9" t="str">
@@ -6238,7 +6331,7 @@
       </c>
       <c r="M40" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d8#0009</v>
+        <v>obj_003d8#0005</v>
       </c>
       <c r="N40" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M40,Trigger),"--")</f>
@@ -6246,7 +6339,7 @@
       </c>
       <c r="O40" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M40,Trigger),"--")</f>
-        <v>97.652500000000003</v>
+        <v>97.672499999999999</v>
       </c>
       <c r="P40" s="96" t="b">
         <f t="shared" si="10"/>
@@ -6267,19 +6360,19 @@
         <v>43727</v>
       </c>
       <c r="V40" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W40" s="3" t="str">
-        <v>obj_003a5</v>
+        <v>obj_003bb</v>
       </c>
       <c r="X40" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W40,Trigger),"")</f>
-        <v>USD_CURVE_3M_21Y_Quote</v>
+        <v>USD_CURVE_3M_18Y_Quote</v>
       </c>
       <c r="Y40" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W40,Trigger),"")</f>
-        <v>2.6116667520000001E-2</v>
+        <v>2.5556219979999999E-2</v>
       </c>
       <c r="Z40" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W40)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W40)),_xll.qlSwapRateHelperSpread($W40))</f>
@@ -6287,14 +6380,14 @@
       </c>
       <c r="AA40" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W40,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB40" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W40,Trigger),"")</f>
-        <v>49929</v>
+        <v>48836</v>
       </c>
       <c r="AC40" s="68">
-        <v>2.7005857584454878E-2</v>
+        <v>2.6388991784716868E-2</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6320,12 +6413,12 @@
         <v>USDFUT3MM8_Quote</v>
       </c>
       <c r="I41" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C41,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J41" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H41,$H$25,C41,G41,I41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d4#0009</v>
+        <v>obj_003d4#0005</v>
       </c>
       <c r="L41" s="9" t="str">
         <f t="shared" si="8"/>
@@ -6333,7 +6426,7 @@
       </c>
       <c r="M41" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003d9#0009</v>
+        <v>obj_003d9#0005</v>
       </c>
       <c r="N41" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M41,Trigger),"--")</f>
@@ -6341,7 +6434,7 @@
       </c>
       <c r="O41" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M41,Trigger),"--")</f>
-        <v>97.5625</v>
+        <v>97.582499999999996</v>
       </c>
       <c r="P41" s="140" t="b">
         <f t="shared" si="10"/>
@@ -6362,19 +6455,19 @@
         <v>43817</v>
       </c>
       <c r="V41" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W41" s="3" t="str">
-        <v>obj_003a4</v>
+        <v>obj_003a8</v>
       </c>
       <c r="X41" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W41,Trigger),"")</f>
-        <v>USD_CURVE_3M_22Y_Quote</v>
+        <v>USD_CURVE_3M_19Y_Quote</v>
       </c>
       <c r="Y41" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W41,Trigger),"")</f>
-        <v>2.6242902250000002E-2</v>
+        <v>2.5752405989999998E-2</v>
       </c>
       <c r="Z41" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W41)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W41)),_xll.qlSwapRateHelperSpread($W41))</f>
@@ -6382,14 +6475,14 @@
       </c>
       <c r="AA41" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W41,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB41" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W41,Trigger),"")</f>
-        <v>50294</v>
+        <v>49201</v>
       </c>
       <c r="AC41" s="68">
-        <v>2.714001123453667E-2</v>
+        <v>2.6603039419534225E-2</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6415,12 +6508,12 @@
         <v>USDFUT3MU8_Quote</v>
       </c>
       <c r="I42" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C42,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J42" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H42,$H$25,C42,G42,I42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d5#0009</v>
+        <v>obj_003d5#0005</v>
       </c>
       <c r="L42" s="9" t="str">
         <f t="shared" si="8"/>
@@ -6428,7 +6521,7 @@
       </c>
       <c r="M42" s="93" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003da#0009</v>
+        <v>obj_003da#0005</v>
       </c>
       <c r="N42" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M42,Trigger),"--")</f>
@@ -6436,7 +6529,7 @@
       </c>
       <c r="O42" s="149">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M42,Trigger),"--")</f>
-        <v>97.474999999999994</v>
+        <v>97.495000000000005</v>
       </c>
       <c r="P42" s="140" t="b">
         <f t="shared" si="10"/>
@@ -6457,19 +6550,19 @@
         <v>43908</v>
       </c>
       <c r="V42" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W42" s="3" t="str">
-        <v>obj_003c0</v>
+        <v>obj_003b4</v>
       </c>
       <c r="X42" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W42,Trigger),"")</f>
-        <v>USD_CURVE_3M_23Y_Quote</v>
+        <v>USD_CURVE_3M_20Y_Quote</v>
       </c>
       <c r="Y42" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W42,Trigger),"")</f>
-        <v>2.635395431E-2</v>
+        <v>2.5920000000000002E-2</v>
       </c>
       <c r="Z42" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W42)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W42)),_xll.qlSwapRateHelperSpread($W42))</f>
@@ -6477,14 +6570,14 @@
       </c>
       <c r="AA42" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W42,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB42" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W42,Trigger),"")</f>
-        <v>50661</v>
+        <v>49566</v>
       </c>
       <c r="AC42" s="68">
-        <v>2.7256830361835904E-2</v>
+        <v>2.6784518981045103E-2</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6510,12 +6603,12 @@
         <v>USDFUT3MZ8_Quote</v>
       </c>
       <c r="I43" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C43,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J43" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H43,$H$25,C43,G43,I43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d6#0009</v>
+        <v>obj_003d6#0005</v>
       </c>
       <c r="L43" s="10" t="str">
         <f t="shared" si="8"/>
@@ -6523,7 +6616,7 @@
       </c>
       <c r="M43" s="94" t="str">
         <f t="shared" si="9"/>
-        <v>obj_003db#0009</v>
+        <v>obj_003db#0005</v>
       </c>
       <c r="N43" s="152" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M43,Trigger),"--")</f>
@@ -6531,16 +6624,16 @@
       </c>
       <c r="O43" s="150">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M43,Trigger),"--")</f>
-        <v>97.39500000000001</v>
+        <v>97.412499999999994</v>
       </c>
       <c r="P43" s="143" t="b">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Q43" s="278">
+      <c r="Q43" s="277">
         <v>50</v>
       </c>
-      <c r="R43" s="278">
+      <c r="R43" s="277">
         <v>1</v>
       </c>
       <c r="S43" s="151">
@@ -6552,19 +6645,19 @@
         <v>44000</v>
       </c>
       <c r="V43" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W43" s="3" t="str">
-        <v>obj_003b2</v>
+        <v>obj_003b8</v>
       </c>
       <c r="X43" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W43,Trigger),"")</f>
-        <v>USD_CURVE_3M_24Y_Quote</v>
+        <v>USD_CURVE_3M_21Y_Quote</v>
       </c>
       <c r="Y43" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W43,Trigger),"")</f>
-        <v>2.645161645E-2</v>
+        <v>2.606308475E-2</v>
       </c>
       <c r="Z43" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W43)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W43)),_xll.qlSwapRateHelperSpread($W43))</f>
@@ -6572,14 +6665,14 @@
       </c>
       <c r="AA43" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W43,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB43" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W43,Trigger),"")</f>
-        <v>51025</v>
+        <v>49933</v>
       </c>
       <c r="AC43" s="68">
-        <v>2.7358935074516654E-2</v>
+        <v>2.6937497736133229E-2</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6605,12 +6698,12 @@
         <v>USDFUT3MH9_Quote</v>
       </c>
       <c r="I44" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C44,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J44" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H44,$H$25,C44,G44,I44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d7#0009</v>
+        <v>obj_003d7#0005</v>
       </c>
       <c r="L44" s="66" t="str">
         <f>A51</f>
@@ -6646,19 +6739,19 @@
         <v>--</v>
       </c>
       <c r="V44" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W44" s="3" t="str">
-        <v>obj_003b1</v>
+        <v>obj_003b5</v>
       </c>
       <c r="X44" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W44,Trigger),"")</f>
-        <v>USD_CURVE_3M_25Y_Quote</v>
+        <v>USD_CURVE_3M_22Y_Quote</v>
       </c>
       <c r="Y44" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W44,Trigger),"")</f>
-        <v>2.6539999999999998E-2</v>
+        <v>2.6184567200000002E-2</v>
       </c>
       <c r="Z44" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W44)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W44)),_xll.qlSwapRateHelperSpread($W44))</f>
@@ -6666,14 +6759,14 @@
       </c>
       <c r="AA44" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W44,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB44" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W44,Trigger),"")</f>
-        <v>51390</v>
+        <v>50297</v>
       </c>
       <c r="AC44" s="68">
-        <v>2.7451031645769633E-2</v>
+        <v>2.7065775645830528E-2</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6699,19 +6792,19 @@
         <v>USDFUT3MM9_Quote</v>
       </c>
       <c r="I45" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C45,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J45" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H45,$H$25,C45,G45,I45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d8#0009</v>
+        <v>obj_003d8#0005</v>
       </c>
       <c r="L45" s="9" t="str">
-        <f t="shared" ref="L45:L63" si="14">A52</f>
+        <f t="shared" ref="L45:L63" si="15">A52</f>
         <v>Sw</v>
       </c>
       <c r="M45" s="139" t="str">
-        <f t="shared" ref="M45:M63" si="15">IF(ISBLANK(J52),"--",J52)</f>
+        <f t="shared" ref="M45:M63" si="16">IF(ISBLANK(J52),"--",J52)</f>
         <v>--</v>
       </c>
       <c r="N45" s="148" t="str">
@@ -6740,19 +6833,19 @@
         <v>--</v>
       </c>
       <c r="V45" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W45" s="3" t="str">
-        <v>obj_003a3</v>
+        <v>obj_003a7</v>
       </c>
       <c r="X45" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W45,Trigger),"")</f>
-        <v>USD_CURVE_3M_26Y_Quote</v>
+        <v>USD_CURVE_3M_23Y_Quote</v>
       </c>
       <c r="Y45" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W45,Trigger),"")</f>
-        <v>2.6620760020000002E-2</v>
+        <v>2.6290650679999999E-2</v>
       </c>
       <c r="Z45" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W45)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W45)),_xll.qlSwapRateHelperSpread($W45))</f>
@@ -6760,14 +6853,14 @@
       </c>
       <c r="AA45" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W45,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB45" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W45,Trigger),"")</f>
-        <v>51755</v>
+        <v>50662</v>
       </c>
       <c r="AC45" s="68">
-        <v>2.7535238128922425E-2</v>
+        <v>2.7176461681886536E-2</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6793,19 +6886,19 @@
         <v>USDFUT3MU9_Quote</v>
       </c>
       <c r="I46" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C46,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J46" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H46,$H$25,C46,G46,I46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d9#0009</v>
+        <v>obj_003d9#0005</v>
       </c>
       <c r="L46" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M46" s="139" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>--</v>
       </c>
       <c r="N46" s="148" t="str">
@@ -6834,19 +6927,19 @@
         <v>--</v>
       </c>
       <c r="V46" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W46" s="3" t="str">
-        <v>obj_003a8</v>
+        <v>obj_003bd</v>
       </c>
       <c r="X46" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W46,Trigger),"")</f>
-        <v>USD_CURVE_3M_27Y_Quote</v>
+        <v>USD_CURVE_3M_24Y_Quote</v>
       </c>
       <c r="Y46" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W46,Trigger),"")</f>
-        <v>2.6694172240000001E-2</v>
+        <v>2.638468159E-2</v>
       </c>
       <c r="Z46" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W46)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W46)),_xll.qlSwapRateHelperSpread($W46))</f>
@@ -6854,14 +6947,14 @@
       </c>
       <c r="AA46" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W46,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB46" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W46,Trigger),"")</f>
-        <v>52120</v>
+        <v>51027</v>
       </c>
       <c r="AC46" s="68">
-        <v>2.7611559515811606E-2</v>
+        <v>2.727378756210791E-2</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6887,19 +6980,19 @@
         <v>USDFUT3MZ9_Quote</v>
       </c>
       <c r="I47" s="118">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C47,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J47" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H47,$H$25,C47,G47,I47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003da#0009</v>
+        <v>obj_003da#0005</v>
       </c>
       <c r="L47" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M47" s="139" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>--</v>
       </c>
       <c r="N47" s="148" t="str">
@@ -6928,19 +7021,19 @@
         <v>--</v>
       </c>
       <c r="V47" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W47" s="3" t="str">
-        <v>obj_003ae</v>
+        <v>obj_003b3</v>
       </c>
       <c r="X47" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W47,Trigger),"")</f>
-        <v>USD_CURVE_3M_28Y_Quote</v>
+        <v>USD_CURVE_3M_25Y_Quote</v>
       </c>
       <c r="Y47" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W47,Trigger),"")</f>
-        <v>2.6760169679999998E-2</v>
+        <v>2.6470000000000004E-2</v>
       </c>
       <c r="Z47" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W47)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W47)),_xll.qlSwapRateHelperSpread($W47))</f>
@@ -6948,14 +7041,14 @@
       </c>
       <c r="AA47" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W47,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB47" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W47,Trigger),"")</f>
-        <v>52485</v>
+        <v>51393</v>
       </c>
       <c r="AC47" s="68">
-        <v>2.7679505076735469E-2</v>
+        <v>2.7361872083471506E-2</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6981,19 +7074,19 @@
         <v>USDFUT3MH0_Quote</v>
       </c>
       <c r="I48" s="119">
-        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C48,$AE$12:$AE$17,0))/100,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>_xll.qlFuturesRateHelper(,H48,$H$25,C48,G48,I48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003db#0009</v>
+        <v>obj_003db#0005</v>
       </c>
       <c r="L48" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M48" s="139" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>--</v>
       </c>
       <c r="N48" s="148" t="str">
@@ -7022,19 +7115,19 @@
         <v>--</v>
       </c>
       <c r="V48" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W48" s="3" t="str">
-        <v>obj_003be</v>
+        <v>obj_003b1</v>
       </c>
       <c r="X48" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W48,Trigger),"")</f>
-        <v>USD_CURVE_3M_29Y_Quote</v>
+        <v>USD_CURVE_3M_26Y_Quote</v>
       </c>
       <c r="Y48" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W48,Trigger),"")</f>
-        <v>2.681907302E-2</v>
+        <v>2.654866421E-2</v>
       </c>
       <c r="Z48" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W48)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W48)),_xll.qlSwapRateHelperSpread($W48))</f>
@@ -7042,14 +7135,14 @@
       </c>
       <c r="AA48" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W48,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB48" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W48,Trigger),"")</f>
-        <v>52852</v>
+        <v>51760</v>
       </c>
       <c r="AC48" s="68">
-        <v>2.7738947024835231E-2</v>
+        <v>2.7443308479947019E-2</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7060,12 +7153,12 @@
         <v>158</v>
       </c>
       <c r="L49" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M49" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003ab#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003b6#0002</v>
       </c>
       <c r="N49" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M49,Trigger),"--")</f>
@@ -7073,7 +7166,7 @@
       </c>
       <c r="O49" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M49,Trigger),"--")</f>
-        <v>1.1430000000000001E-2</v>
+        <v>1.1379999999999999E-2</v>
       </c>
       <c r="P49" s="140" t="b">
         <v>1</v>
@@ -7086,26 +7179,26 @@
       </c>
       <c r="S49" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M49,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T49" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M49,Trigger),"--")</f>
-        <v>43354</v>
+        <v>43357</v>
       </c>
       <c r="V49" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W49" s="3" t="str">
-        <v>obj_003b3</v>
+        <v>obj_003a9</v>
       </c>
       <c r="X49" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W49,Trigger),"")</f>
-        <v>USD_CURVE_3M_30Y_Quote</v>
+        <v>USD_CURVE_3M_27Y_Quote</v>
       </c>
       <c r="Y49" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W49,Trigger),"")</f>
-        <v>2.6870000000000002E-2</v>
+        <v>2.6619811870000003E-2</v>
       </c>
       <c r="Z49" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W49)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W49)),_xll.qlSwapRateHelperSpread($W49))</f>
@@ -7113,14 +7206,14 @@
       </c>
       <c r="AA49" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W49,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB49" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W49,Trigger),"")</f>
-        <v>53216</v>
+        <v>52124</v>
       </c>
       <c r="AC49" s="68">
-        <v>2.7788744601168515E-2</v>
+        <v>2.751695766702E-2</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7155,12 +7248,12 @@
         <v>25</v>
       </c>
       <c r="L50" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M50" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003a7#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003a4#0002</v>
       </c>
       <c r="N50" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M50,Trigger),"--")</f>
@@ -7168,7 +7261,7 @@
       </c>
       <c r="O50" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M50,Trigger),"--")</f>
-        <v>1.3849999999999999E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="P50" s="140" t="b">
         <v>1</v>
@@ -7181,26 +7274,26 @@
       </c>
       <c r="S50" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M50,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T50" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M50,Trigger),"--")</f>
-        <v>43719</v>
+        <v>43724</v>
       </c>
       <c r="V50" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W50" s="3" t="str">
-        <v>obj_003ad</v>
+        <v>obj_003a5</v>
       </c>
       <c r="X50" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W50,Trigger),"")</f>
-        <v>USD_CURVE_3M_40Y_Quote</v>
+        <v>USD_CURVE_3M_28Y_Quote</v>
       </c>
       <c r="Y50" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W50,Trigger),"")</f>
-        <v>2.7050000000000001E-2</v>
+        <v>2.6683845669999998E-2</v>
       </c>
       <c r="Z50" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W50)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W50)),_xll.qlSwapRateHelperSpread($W50))</f>
@@ -7208,14 +7301,14 @@
       </c>
       <c r="AA50" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W50,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB50" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W50,Trigger),"")</f>
-        <v>56870</v>
+        <v>52488</v>
       </c>
       <c r="AC50" s="68">
-        <v>2.7853013881590533E-2</v>
+        <v>2.758261431552755E-2</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7238,11 +7331,11 @@
         <v>28</v>
       </c>
       <c r="G51" s="55" t="str">
-        <f t="shared" ref="G51:G87" si="16">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
+        <f t="shared" ref="G51:G87" si="17">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
         <v>UsdLibor3M</v>
       </c>
       <c r="H51" s="53" t="str">
-        <f t="shared" ref="H51:H87" si="17">Currency&amp;$G$49&amp;$H$49&amp;$B51&amp;"_Quote"</f>
+        <f t="shared" ref="H51:H87" si="18">Currency&amp;$G$49&amp;$H$49&amp;$B51&amp;"_Quote"</f>
         <v>USD_CURVE_3M_1Y_Quote</v>
       </c>
       <c r="I51" s="127">
@@ -7250,12 +7343,12 @@
       </c>
       <c r="J51" s="62"/>
       <c r="L51" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M51" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003a0#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003a3#0002</v>
       </c>
       <c r="N51" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M51,Trigger),"--")</f>
@@ -7263,7 +7356,7 @@
       </c>
       <c r="O51" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M51,Trigger),"--")</f>
-        <v>1.5910000000000001E-2</v>
+        <v>1.585E-2</v>
       </c>
       <c r="P51" s="140" t="b">
         <v>1</v>
@@ -7276,26 +7369,26 @@
       </c>
       <c r="S51" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M51,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T51" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M51,Trigger),"--")</f>
-        <v>44085</v>
+        <v>44088</v>
       </c>
       <c r="V51" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W51" s="3" t="str">
-        <v>obj_003bd</v>
+        <v>obj_003bc</v>
       </c>
       <c r="X51" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W51,Trigger),"")</f>
-        <v>USD_CURVE_3M_50Y_Quote</v>
+        <v>USD_CURVE_3M_29Y_Quote</v>
       </c>
       <c r="Y51" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W51,Trigger),"")</f>
-        <v>2.69E-2</v>
+        <v>2.6740832809999997E-2</v>
       </c>
       <c r="Z51" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W51)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W51)),_xll.qlSwapRateHelperSpread($W51))</f>
@@ -7303,14 +7396,14 @@
       </c>
       <c r="AA51" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W51,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB51" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W51,Trigger),"")</f>
-        <v>60521</v>
+        <v>52854</v>
       </c>
       <c r="AC51" s="68">
-        <v>2.7406104780059056E-2</v>
+        <v>2.7639779770366753E-2</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7333,11 +7426,11 @@
         <v>28</v>
       </c>
       <c r="G52" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H52" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_15M_Quote</v>
       </c>
       <c r="I52" s="128">
@@ -7345,12 +7438,12 @@
       </c>
       <c r="J52" s="62"/>
       <c r="L52" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M52" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003a9#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003ad#0002</v>
       </c>
       <c r="N52" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M52,Trigger),"--")</f>
@@ -7358,7 +7451,7 @@
       </c>
       <c r="O52" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M52,Trigger),"--")</f>
-        <v>1.7690000000000001E-2</v>
+        <v>1.763E-2</v>
       </c>
       <c r="P52" s="140" t="b">
         <v>1</v>
@@ -7371,26 +7464,26 @@
       </c>
       <c r="S52" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M52,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T52" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M52,Trigger),"--")</f>
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="V52" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Sw</v>
       </c>
       <c r="W52" s="3" t="str">
-        <v>obj_003c4</v>
+        <v>obj_003b9</v>
       </c>
       <c r="X52" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W52,Trigger),"")</f>
-        <v>USD_CURVE_3M_60Y_Quote</v>
+        <v>USD_CURVE_3M_30Y_Quote</v>
       </c>
       <c r="Y52" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W52,Trigger),"")</f>
-        <v>2.6760840740000003E-2</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="Z52" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W52)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W52)),_xll.qlSwapRateHelperSpread($W52))</f>
@@ -7398,14 +7491,14 @@
       </c>
       <c r="AA52" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W52,Trigger),"")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="AB52" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W52,Trigger),"")</f>
-        <v>64173</v>
+        <v>53219</v>
       </c>
       <c r="AC52" s="68">
-        <v>2.7014704099607569E-2</v>
+        <v>2.7687255564946008E-2</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7428,11 +7521,11 @@
         <v>28</v>
       </c>
       <c r="G53" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H53" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_18M_Quote</v>
       </c>
       <c r="I53" s="128">
@@ -7440,12 +7533,12 @@
       </c>
       <c r="J53" s="62"/>
       <c r="L53" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M53" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003bc#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003a2#0002</v>
       </c>
       <c r="N53" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M53,Trigger),"--")</f>
@@ -7453,7 +7546,7 @@
       </c>
       <c r="O53" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M53,Trigger),"--")</f>
-        <v>1.915E-2</v>
+        <v>1.9119999999999998E-2</v>
       </c>
       <c r="P53" s="140" t="b">
         <v>1</v>
@@ -7466,41 +7559,41 @@
       </c>
       <c r="S53" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M53,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T53" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M53,Trigger),"--")</f>
-        <v>44816</v>
+        <v>44818</v>
       </c>
       <c r="V53" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="W53" s="3" t="e">
-        <v>#N/A</v>
+        <f t="shared" si="14"/>
+        <v>Sw</v>
+      </c>
+      <c r="W53" s="3" t="str">
+        <v>obj_003a0</v>
       </c>
       <c r="X53" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W53,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y53" s="68" t="str">
+        <v>USD_CURVE_3M_40Y_Quote</v>
+      </c>
+      <c r="Y53" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W53,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z53" s="103" t="str">
+        <v>2.6950000000000002E-2</v>
+      </c>
+      <c r="Z53" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W53)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W53)),_xll.qlSwapRateHelperSpread($W53))</f>
-        <v/>
-      </c>
-      <c r="AA53" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W53,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB53" s="4" t="str">
+        <v>42261</v>
+      </c>
+      <c r="AB53" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W53,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC53" s="68" t="e">
-        <v>#N/A</v>
+        <v>56871</v>
+      </c>
+      <c r="AC53" s="68">
+        <v>2.7723938517549174E-2</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7523,11 +7616,11 @@
         <v>28</v>
       </c>
       <c r="G54" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H54" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_21M_Quote</v>
       </c>
       <c r="I54" s="128">
@@ -7535,12 +7628,12 @@
       </c>
       <c r="J54" s="62"/>
       <c r="L54" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M54" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003b4#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003a1#0002</v>
       </c>
       <c r="N54" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M54,Trigger),"--")</f>
@@ -7548,7 +7641,7 @@
       </c>
       <c r="O54" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M54,Trigger),"--")</f>
-        <v>2.0369999999999999E-2</v>
+        <v>2.035E-2</v>
       </c>
       <c r="P54" s="140" t="b">
         <v>1</v>
@@ -7561,41 +7654,41 @@
       </c>
       <c r="S54" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M54,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T54" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M54,Trigger),"--")</f>
-        <v>45180</v>
+        <v>45183</v>
       </c>
       <c r="V54" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="W54" s="3" t="e">
-        <v>#N/A</v>
+        <f t="shared" si="14"/>
+        <v>Sw</v>
+      </c>
+      <c r="W54" s="3" t="str">
+        <v>obj_003b0</v>
       </c>
       <c r="X54" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W54,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y54" s="68" t="str">
+        <v>USD_CURVE_3M_50Y_Quote</v>
+      </c>
+      <c r="Y54" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W54,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z54" s="103" t="str">
+        <v>2.681E-2</v>
+      </c>
+      <c r="Z54" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W54)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W54)),_xll.qlSwapRateHelperSpread($W54))</f>
-        <v/>
-      </c>
-      <c r="AA54" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W54,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB54" s="4" t="str">
+        <v>42261</v>
+      </c>
+      <c r="AB54" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W54,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC54" s="68" t="e">
-        <v>#N/A</v>
+        <v>60524</v>
+      </c>
+      <c r="AC54" s="68">
+        <v>2.7303078926940665E-2</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7618,11 +7711,11 @@
         <v>28</v>
       </c>
       <c r="G55" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H55" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_2Y_Quote</v>
       </c>
       <c r="I55" s="128">
@@ -7630,12 +7723,12 @@
       </c>
       <c r="J55" s="62"/>
       <c r="L55" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M55" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003b0#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003ae#0002</v>
       </c>
       <c r="N55" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M55,Trigger),"--")</f>
@@ -7643,7 +7736,7 @@
       </c>
       <c r="O55" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M55,Trigger),"--")</f>
-        <v>2.137E-2</v>
+        <v>2.1349999999999997E-2</v>
       </c>
       <c r="P55" s="140" t="b">
         <v>1</v>
@@ -7656,41 +7749,41 @@
       </c>
       <c r="S55" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M55,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T55" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M55,Trigger),"--")</f>
-        <v>45546</v>
+        <v>45551</v>
       </c>
       <c r="V55" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="W55" s="3" t="e">
-        <v>#N/A</v>
+        <f t="shared" si="14"/>
+        <v>Sw</v>
+      </c>
+      <c r="W55" s="3" t="str">
+        <v>obj_003c4</v>
       </c>
       <c r="X55" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W55,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Y55" s="68" t="str">
+        <v>USD_CURVE_3M_60Y_Quote</v>
+      </c>
+      <c r="Y55" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W55,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="Z55" s="103" t="str">
+        <v>2.668520165E-2</v>
+      </c>
+      <c r="Z55" s="103">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W55)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W55)),_xll.qlSwapRateHelperSpread($W55))</f>
-        <v/>
-      </c>
-      <c r="AA55" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W55,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AB55" s="4" t="str">
+        <v>42261</v>
+      </c>
+      <c r="AB55" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W55,Trigger),"")</f>
-        <v/>
-      </c>
-      <c r="AC55" s="68" t="e">
-        <v>#N/A</v>
+        <v>64178</v>
+      </c>
+      <c r="AC55" s="68">
+        <v>2.6946517692719416E-2</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7713,11 +7806,11 @@
         <v>28</v>
       </c>
       <c r="G56" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H56" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_3Y_Quote</v>
       </c>
       <c r="I56" s="128">
@@ -7725,15 +7818,15 @@
       </c>
       <c r="J56" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H56,,B56,JoinCalendar,USDSTD!D56,USDSTD!E56,USDSTD!F56,USDSTD!G56,USDSTD!I56,USDSTD!C56,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ab#0004</v>
+        <v>obj_003b6#0002</v>
       </c>
       <c r="L56" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M56" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003b5#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003a6#0002</v>
       </c>
       <c r="N56" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M56,Trigger),"--")</f>
@@ -7741,7 +7834,7 @@
       </c>
       <c r="O56" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M56,Trigger),"--")</f>
-        <v>2.2200000000000001E-2</v>
+        <v>2.2179999999999998E-2</v>
       </c>
       <c r="P56" s="140" t="b">
         <v>1</v>
@@ -7754,14 +7847,14 @@
       </c>
       <c r="S56" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M56,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T56" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M56,Trigger),"--")</f>
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="V56" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W56" s="3" t="e">
@@ -7811,11 +7904,11 @@
         <v>28</v>
       </c>
       <c r="G57" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H57" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_4Y_Quote</v>
       </c>
       <c r="I57" s="128">
@@ -7823,15 +7916,15 @@
       </c>
       <c r="J57" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H57,,B57,JoinCalendar,USDSTD!D57,USDSTD!E57,USDSTD!F57,USDSTD!G57,USDSTD!I57,USDSTD!C57,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a7#0004</v>
+        <v>obj_003a4#0002</v>
       </c>
       <c r="L57" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M57" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003a6#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003ba#0002</v>
       </c>
       <c r="N57" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M57,Trigger),"--")</f>
@@ -7839,7 +7932,7 @@
       </c>
       <c r="O57" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M57,Trigger),"--")</f>
-        <v>2.2917710939999999E-2</v>
+        <v>2.2889750189999999E-2</v>
       </c>
       <c r="P57" s="140" t="b">
         <v>1</v>
@@ -7852,14 +7945,14 @@
       </c>
       <c r="S57" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M57,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T57" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M57,Trigger),"--")</f>
-        <v>46276</v>
+        <v>46279</v>
       </c>
       <c r="V57" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W57" s="3" t="e">
@@ -7909,11 +8002,11 @@
         <v>28</v>
       </c>
       <c r="G58" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H58" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_5Y_Quote</v>
       </c>
       <c r="I58" s="128">
@@ -7921,15 +8014,15 @@
       </c>
       <c r="J58" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H58,,B58,JoinCalendar,USDSTD!D58,USDSTD!E58,USDSTD!F58,USDSTD!G58,USDSTD!I58,USDSTD!C58,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a0#0004</v>
+        <v>obj_003a3#0002</v>
       </c>
       <c r="L58" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M58" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003b7#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003af#0002</v>
       </c>
       <c r="N58" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M58,Trigger),"--")</f>
@@ -7937,7 +8030,7 @@
       </c>
       <c r="O58" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M58,Trigger),"--")</f>
-        <v>2.3530000000000002E-2</v>
+        <v>2.349E-2</v>
       </c>
       <c r="P58" s="140" t="b">
         <v>1</v>
@@ -7950,14 +8043,14 @@
       </c>
       <c r="S58" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M58,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T58" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M58,Trigger),"--")</f>
-        <v>46643</v>
+        <v>46644</v>
       </c>
       <c r="V58" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W58" s="3" t="e">
@@ -8007,11 +8100,11 @@
         <v>28</v>
       </c>
       <c r="G59" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H59" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_6Y_Quote</v>
       </c>
       <c r="I59" s="128">
@@ -8019,15 +8112,15 @@
       </c>
       <c r="J59" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H59,,B59,JoinCalendar,USDSTD!D59,USDSTD!E59,USDSTD!F59,USDSTD!G59,USDSTD!I59,USDSTD!C59,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a9#0004</v>
+        <v>obj_003ad#0002</v>
       </c>
       <c r="L59" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M59" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003a2#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003ac#0002</v>
       </c>
       <c r="N59" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M59,Trigger),"--")</f>
@@ -8035,7 +8128,7 @@
       </c>
       <c r="O59" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M59,Trigger),"--")</f>
-        <v>2.4029802130000003E-2</v>
+        <v>2.398862823E-2</v>
       </c>
       <c r="P59" s="140" t="b">
         <v>1</v>
@@ -8048,14 +8141,14 @@
       </c>
       <c r="S59" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M59,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T59" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M59,Trigger),"--")</f>
-        <v>47007</v>
+        <v>47010</v>
       </c>
       <c r="V59" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W59" s="3" t="e">
@@ -8105,11 +8198,11 @@
         <v>28</v>
       </c>
       <c r="G60" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H60" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_7Y_Quote</v>
       </c>
       <c r="I60" s="128">
@@ -8117,15 +8210,15 @@
       </c>
       <c r="J60" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H60,,B60,JoinCalendar,USDSTD!D60,USDSTD!E60,USDSTD!F60,USDSTD!G60,USDSTD!I60,USDSTD!C60,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bc#0004</v>
+        <v>obj_003a2#0002</v>
       </c>
       <c r="L60" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M60" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003af#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003aa#0002</v>
       </c>
       <c r="N60" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M60,Trigger),"--")</f>
@@ -8133,7 +8226,7 @@
       </c>
       <c r="O60" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M60,Trigger),"--")</f>
-        <v>2.4446480909999999E-2</v>
+        <v>2.4404396179999999E-2</v>
       </c>
       <c r="P60" s="140" t="b">
         <v>1</v>
@@ -8146,14 +8239,14 @@
       </c>
       <c r="S60" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M60,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T60" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M60,Trigger),"--")</f>
-        <v>47372</v>
+        <v>47375</v>
       </c>
       <c r="V60" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W60" s="3" t="e">
@@ -8203,11 +8296,11 @@
         <v>28</v>
       </c>
       <c r="G61" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H61" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_8Y_Quote</v>
       </c>
       <c r="I61" s="128">
@@ -8215,15 +8308,15 @@
       </c>
       <c r="J61" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H61,,B61,JoinCalendar,USDSTD!D61,USDSTD!E61,USDSTD!F61,USDSTD!G61,USDSTD!I61,USDSTD!C61,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b4#0004</v>
+        <v>obj_003a1#0002</v>
       </c>
       <c r="L61" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M61" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003b6#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003ab#0002</v>
       </c>
       <c r="N61" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M61,Trigger),"--")</f>
@@ -8231,7 +8324,7 @@
       </c>
       <c r="O61" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M61,Trigger),"--")</f>
-        <v>2.4799999999999999E-2</v>
+        <v>2.4760000000000001E-2</v>
       </c>
       <c r="P61" s="140" t="b">
         <v>1</v>
@@ -8244,14 +8337,14 @@
       </c>
       <c r="S61" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M61,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T61" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M61,Trigger),"--")</f>
-        <v>47737</v>
+        <v>47742</v>
       </c>
       <c r="V61" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W61" s="3" t="e">
@@ -8301,11 +8394,11 @@
         <v>28</v>
       </c>
       <c r="G62" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H62" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_9Y_Quote</v>
       </c>
       <c r="I62" s="128">
@@ -8313,15 +8406,15 @@
       </c>
       <c r="J62" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H62,,B62,JoinCalendar,USDSTD!D62,USDSTD!E62,USDSTD!F62,USDSTD!G62,USDSTD!I62,USDSTD!C62,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b0#0004</v>
+        <v>obj_003ae#0002</v>
       </c>
       <c r="L62" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M62" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003aa#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003b2#0002</v>
       </c>
       <c r="N62" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M62,Trigger),"--")</f>
@@ -8329,7 +8422,7 @@
       </c>
       <c r="O62" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M62,Trigger),"--")</f>
-        <v>2.5105371290000001E-2</v>
+        <v>2.50641261E-2</v>
       </c>
       <c r="P62" s="140" t="b">
         <v>1</v>
@@ -8342,14 +8435,14 @@
       </c>
       <c r="S62" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M62,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T62" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M62,Trigger),"--")</f>
-        <v>48102</v>
+        <v>48106</v>
       </c>
       <c r="V62" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W62" s="3" t="e">
@@ -8399,11 +8492,11 @@
         <v>28</v>
       </c>
       <c r="G63" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H63" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_10Y_Quote</v>
       </c>
       <c r="I63" s="128">
@@ -8411,15 +8504,15 @@
       </c>
       <c r="J63" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H63,,B63,JoinCalendar,USDSTD!D63,USDSTD!E63,USDSTD!F63,USDSTD!G63,USDSTD!I63,USDSTD!C63,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b5#0004</v>
+        <v>obj_003a6#0002</v>
       </c>
       <c r="L63" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Sw</v>
       </c>
       <c r="M63" s="139" t="str">
-        <f t="shared" si="15"/>
-        <v>obj_003ba#0004</v>
+        <f t="shared" si="16"/>
+        <v>obj_003be#0002</v>
       </c>
       <c r="N63" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M63,Trigger),"--")</f>
@@ -8427,7 +8520,7 @@
       </c>
       <c r="O63" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M63,Trigger),"--")</f>
-        <v>2.5372498539999996E-2</v>
+        <v>2.5328148800000002E-2</v>
       </c>
       <c r="P63" s="140" t="b">
         <v>1</v>
@@ -8440,14 +8533,14 @@
       </c>
       <c r="S63" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M63,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T63" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M63,Trigger),"--")</f>
-        <v>48470</v>
+        <v>48471</v>
       </c>
       <c r="V63" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W63" s="3" t="e">
@@ -8497,11 +8590,11 @@
         <v>28</v>
       </c>
       <c r="G64" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H64" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_11Y_Quote</v>
       </c>
       <c r="I64" s="128">
@@ -8509,15 +8602,15 @@
       </c>
       <c r="J64" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H64,,B64,JoinCalendar,USDSTD!D64,USDSTD!E64,USDSTD!F64,USDSTD!G64,USDSTD!I64,USDSTD!C64,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a6#0004</v>
+        <v>obj_003ba#0002</v>
       </c>
       <c r="L64" s="9" t="str">
-        <f t="shared" ref="L64:L80" si="18">A71</f>
+        <f t="shared" ref="L64:L80" si="19">A71</f>
         <v>Sw</v>
       </c>
       <c r="M64" s="139" t="str">
-        <f t="shared" ref="M64:M80" si="19">IF(ISBLANK(J71),"--",J71)</f>
-        <v>obj_003bb#0004</v>
+        <f t="shared" ref="M64:M80" si="20">IF(ISBLANK(J71),"--",J71)</f>
+        <v>obj_003bb#0002</v>
       </c>
       <c r="N64" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M64,Trigger),"--")</f>
@@ -8525,7 +8618,7 @@
       </c>
       <c r="O64" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M64,Trigger),"--")</f>
-        <v>2.5601316209999999E-2</v>
+        <v>2.5556219979999999E-2</v>
       </c>
       <c r="P64" s="140" t="b">
         <v>1</v>
@@ -8538,14 +8631,14 @@
       </c>
       <c r="S64" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M64,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T64" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M64,Trigger),"--")</f>
-        <v>48834</v>
+        <v>48836</v>
       </c>
       <c r="V64" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W64" s="3" t="e">
@@ -8595,11 +8688,11 @@
         <v>28</v>
       </c>
       <c r="G65" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H65" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_12Y_Quote</v>
       </c>
       <c r="I65" s="128">
@@ -8607,15 +8700,15 @@
       </c>
       <c r="J65" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H65,,B65,JoinCalendar,USDSTD!D65,USDSTD!E65,USDSTD!F65,USDSTD!G65,USDSTD!I65,USDSTD!C65,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b7#0004</v>
+        <v>obj_003af#0002</v>
       </c>
       <c r="L65" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M65" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003a1#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003a8#0002</v>
       </c>
       <c r="N65" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M65,Trigger),"--")</f>
@@ -8623,7 +8716,7 @@
       </c>
       <c r="O65" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M65,Trigger),"--")</f>
-        <v>2.5799222510000001E-2</v>
+        <v>2.5752405989999998E-2</v>
       </c>
       <c r="P65" s="140" t="b">
         <v>1</v>
@@ -8636,14 +8729,14 @@
       </c>
       <c r="S65" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M65,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T65" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M65,Trigger),"--")</f>
-        <v>49198</v>
+        <v>49201</v>
       </c>
       <c r="V65" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W65" s="3" t="e">
@@ -8693,11 +8786,11 @@
         <v>28</v>
       </c>
       <c r="G66" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H66" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_13Y_Quote</v>
       </c>
       <c r="I66" s="128">
@@ -8705,15 +8798,15 @@
       </c>
       <c r="J66" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H66,,B66,JoinCalendar,USDSTD!D66,USDSTD!E66,USDSTD!F66,USDSTD!G66,USDSTD!I66,USDSTD!C66,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a2#0004</v>
+        <v>obj_003ac#0002</v>
       </c>
       <c r="L66" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M66" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003b8#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003b4#0002</v>
       </c>
       <c r="N66" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M66,Trigger),"--")</f>
@@ -8721,7 +8814,7 @@
       </c>
       <c r="O66" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M66,Trigger),"--")</f>
-        <v>2.597E-2</v>
+        <v>2.5920000000000002E-2</v>
       </c>
       <c r="P66" s="140" t="b">
         <v>1</v>
@@ -8734,14 +8827,14 @@
       </c>
       <c r="S66" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M66,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T66" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M66,Trigger),"--")</f>
-        <v>49563</v>
+        <v>49566</v>
       </c>
       <c r="V66" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W66" s="3" t="e">
@@ -8791,11 +8884,11 @@
         <v>28</v>
       </c>
       <c r="G67" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H67" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_14Y_Quote</v>
       </c>
       <c r="I67" s="128">
@@ -8803,15 +8896,15 @@
       </c>
       <c r="J67" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H67,,B67,JoinCalendar,USDSTD!D67,USDSTD!E67,USDSTD!F67,USDSTD!G67,USDSTD!I67,USDSTD!C67,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003af#0004</v>
+        <v>obj_003aa#0002</v>
       </c>
       <c r="L67" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M67" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003a5#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003b8#0002</v>
       </c>
       <c r="N67" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M67,Trigger),"--")</f>
@@ -8819,7 +8912,7 @@
       </c>
       <c r="O67" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M67,Trigger),"--")</f>
-        <v>2.6116667520000001E-2</v>
+        <v>2.606308475E-2</v>
       </c>
       <c r="P67" s="140" t="b">
         <v>1</v>
@@ -8832,14 +8925,14 @@
       </c>
       <c r="S67" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M67,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T67" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M67,Trigger),"--")</f>
-        <v>49929</v>
+        <v>49933</v>
       </c>
       <c r="V67" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W67" s="3" t="e">
@@ -8889,11 +8982,11 @@
         <v>28</v>
       </c>
       <c r="G68" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H68" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_15Y_Quote</v>
       </c>
       <c r="I68" s="128">
@@ -8901,15 +8994,15 @@
       </c>
       <c r="J68" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H68,,B68,JoinCalendar,USDSTD!D68,USDSTD!E68,USDSTD!F68,USDSTD!G68,USDSTD!I68,USDSTD!C68,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b6#0004</v>
+        <v>obj_003ab#0002</v>
       </c>
       <c r="L68" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M68" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003a4#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003b5#0002</v>
       </c>
       <c r="N68" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M68,Trigger),"--")</f>
@@ -8917,7 +9010,7 @@
       </c>
       <c r="O68" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M68,Trigger),"--")</f>
-        <v>2.6242902250000002E-2</v>
+        <v>2.6184567200000002E-2</v>
       </c>
       <c r="P68" s="140" t="b">
         <v>1</v>
@@ -8930,14 +9023,14 @@
       </c>
       <c r="S68" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M68,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T68" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M68,Trigger),"--")</f>
-        <v>50294</v>
+        <v>50297</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W68" s="3" t="e">
@@ -8987,11 +9080,11 @@
         <v>28</v>
       </c>
       <c r="G69" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H69" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_16Y_Quote</v>
       </c>
       <c r="I69" s="128">
@@ -8999,15 +9092,15 @@
       </c>
       <c r="J69" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H69,,B69,JoinCalendar,USDSTD!D69,USDSTD!E69,USDSTD!F69,USDSTD!G69,USDSTD!I69,USDSTD!C69,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003aa#0004</v>
+        <v>obj_003b2#0002</v>
       </c>
       <c r="L69" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M69" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003c0#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003a7#0002</v>
       </c>
       <c r="N69" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M69,Trigger),"--")</f>
@@ -9015,7 +9108,7 @@
       </c>
       <c r="O69" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M69,Trigger),"--")</f>
-        <v>2.635395431E-2</v>
+        <v>2.6290650679999999E-2</v>
       </c>
       <c r="P69" s="140" t="b">
         <v>1</v>
@@ -9028,14 +9121,14 @@
       </c>
       <c r="S69" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M69,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T69" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M69,Trigger),"--")</f>
-        <v>50661</v>
+        <v>50662</v>
       </c>
       <c r="V69" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W69" s="3" t="e">
@@ -9085,11 +9178,11 @@
         <v>28</v>
       </c>
       <c r="G70" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H70" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_17Y_Quote</v>
       </c>
       <c r="I70" s="128">
@@ -9097,15 +9190,15 @@
       </c>
       <c r="J70" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H70,,B70,JoinCalendar,USDSTD!D70,USDSTD!E70,USDSTD!F70,USDSTD!G70,USDSTD!I70,USDSTD!C70,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ba#0004</v>
+        <v>obj_003be#0002</v>
       </c>
       <c r="L70" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M70" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003b2#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003bd#0002</v>
       </c>
       <c r="N70" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M70,Trigger),"--")</f>
@@ -9113,7 +9206,7 @@
       </c>
       <c r="O70" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M70,Trigger),"--")</f>
-        <v>2.645161645E-2</v>
+        <v>2.638468159E-2</v>
       </c>
       <c r="P70" s="140" t="b">
         <v>1</v>
@@ -9126,14 +9219,14 @@
       </c>
       <c r="S70" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M70,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T70" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M70,Trigger),"--")</f>
-        <v>51025</v>
+        <v>51027</v>
       </c>
       <c r="V70" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W70" s="3" t="e">
@@ -9183,11 +9276,11 @@
         <v>28</v>
       </c>
       <c r="G71" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H71" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_18Y_Quote</v>
       </c>
       <c r="I71" s="128">
@@ -9195,15 +9288,15 @@
       </c>
       <c r="J71" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H71,,B71,JoinCalendar,USDSTD!D71,USDSTD!E71,USDSTD!F71,USDSTD!G71,USDSTD!I71,USDSTD!C71,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bb#0004</v>
+        <v>obj_003bb#0002</v>
       </c>
       <c r="L71" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M71" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003b1#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003b3#0002</v>
       </c>
       <c r="N71" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M71,Trigger),"--")</f>
@@ -9211,7 +9304,7 @@
       </c>
       <c r="O71" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M71,Trigger),"--")</f>
-        <v>2.6539999999999998E-2</v>
+        <v>2.6470000000000004E-2</v>
       </c>
       <c r="P71" s="140" t="b">
         <v>1</v>
@@ -9224,14 +9317,14 @@
       </c>
       <c r="S71" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M71,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T71" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M71,Trigger),"--")</f>
-        <v>51390</v>
+        <v>51393</v>
       </c>
       <c r="V71" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W71" s="5" t="e">
@@ -9281,11 +9374,11 @@
         <v>28</v>
       </c>
       <c r="G72" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H72" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_19Y_Quote</v>
       </c>
       <c r="I72" s="128">
@@ -9293,15 +9386,15 @@
       </c>
       <c r="J72" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H72,,B72,JoinCalendar,USDSTD!D72,USDSTD!E72,USDSTD!F72,USDSTD!G72,USDSTD!I72,USDSTD!C72,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a1#0004</v>
+        <v>obj_003a8#0002</v>
       </c>
       <c r="L72" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M72" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003a3#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003b1#0002</v>
       </c>
       <c r="N72" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M72,Trigger),"--")</f>
@@ -9309,7 +9402,7 @@
       </c>
       <c r="O72" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M72,Trigger),"--")</f>
-        <v>2.6620760020000002E-2</v>
+        <v>2.654866421E-2</v>
       </c>
       <c r="P72" s="140" t="b">
         <v>1</v>
@@ -9322,11 +9415,11 @@
       </c>
       <c r="S72" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M72,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T72" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M72,Trigger),"--")</f>
-        <v>51755</v>
+        <v>51760</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9349,11 +9442,11 @@
         <v>28</v>
       </c>
       <c r="G73" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H73" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_20Y_Quote</v>
       </c>
       <c r="I73" s="128">
@@ -9361,15 +9454,15 @@
       </c>
       <c r="J73" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H73,,B73,JoinCalendar,USDSTD!D73,USDSTD!E73,USDSTD!F73,USDSTD!G73,USDSTD!I73,USDSTD!C73,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b8#0004</v>
+        <v>obj_003b4#0002</v>
       </c>
       <c r="L73" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M73" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003a8#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003a9#0002</v>
       </c>
       <c r="N73" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M73,Trigger),"--")</f>
@@ -9377,7 +9470,7 @@
       </c>
       <c r="O73" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M73,Trigger),"--")</f>
-        <v>2.6694172240000001E-2</v>
+        <v>2.6619811870000003E-2</v>
       </c>
       <c r="P73" s="140" t="b">
         <v>1</v>
@@ -9390,11 +9483,11 @@
       </c>
       <c r="S73" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M73,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T73" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M73,Trigger),"--")</f>
-        <v>52120</v>
+        <v>52124</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9417,11 +9510,11 @@
         <v>28</v>
       </c>
       <c r="G74" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H74" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_21Y_Quote</v>
       </c>
       <c r="I74" s="128">
@@ -9429,15 +9522,15 @@
       </c>
       <c r="J74" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H74,,B74,JoinCalendar,USDSTD!D74,USDSTD!E74,USDSTD!F74,USDSTD!G74,USDSTD!I74,USDSTD!C74,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a5#0004</v>
+        <v>obj_003b8#0002</v>
       </c>
       <c r="L74" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M74" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003ae#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003a5#0002</v>
       </c>
       <c r="N74" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M74,Trigger),"--")</f>
@@ -9445,7 +9538,7 @@
       </c>
       <c r="O74" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M74,Trigger),"--")</f>
-        <v>2.6760169679999998E-2</v>
+        <v>2.6683845669999998E-2</v>
       </c>
       <c r="P74" s="140" t="b">
         <v>1</v>
@@ -9458,11 +9551,11 @@
       </c>
       <c r="S74" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M74,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T74" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M74,Trigger),"--")</f>
-        <v>52485</v>
+        <v>52488</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9485,11 +9578,11 @@
         <v>28</v>
       </c>
       <c r="G75" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H75" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_22Y_Quote</v>
       </c>
       <c r="I75" s="128">
@@ -9497,15 +9590,15 @@
       </c>
       <c r="J75" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H75,,B75,JoinCalendar,USDSTD!D75,USDSTD!E75,USDSTD!F75,USDSTD!G75,USDSTD!I75,USDSTD!C75,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a4#0004</v>
+        <v>obj_003b5#0002</v>
       </c>
       <c r="L75" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M75" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003be#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003bc#0002</v>
       </c>
       <c r="N75" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M75,Trigger),"--")</f>
@@ -9513,7 +9606,7 @@
       </c>
       <c r="O75" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M75,Trigger),"--")</f>
-        <v>2.681907302E-2</v>
+        <v>2.6740832809999997E-2</v>
       </c>
       <c r="P75" s="140" t="b">
         <v>1</v>
@@ -9526,11 +9619,11 @@
       </c>
       <c r="S75" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M75,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T75" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M75,Trigger),"--")</f>
-        <v>52852</v>
+        <v>52854</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9553,11 +9646,11 @@
         <v>28</v>
       </c>
       <c r="G76" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H76" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_23Y_Quote</v>
       </c>
       <c r="I76" s="128">
@@ -9565,15 +9658,15 @@
       </c>
       <c r="J76" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H76,,B76,JoinCalendar,USDSTD!D76,USDSTD!E76,USDSTD!F76,USDSTD!G76,USDSTD!I76,USDSTD!C76,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c0#0004</v>
+        <v>obj_003a7#0002</v>
       </c>
       <c r="L76" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M76" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003b3#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003b9#0002</v>
       </c>
       <c r="N76" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M76,Trigger),"--")</f>
@@ -9581,7 +9674,7 @@
       </c>
       <c r="O76" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M76,Trigger),"--")</f>
-        <v>2.6870000000000002E-2</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="P76" s="140" t="b">
         <v>1</v>
@@ -9594,11 +9687,11 @@
       </c>
       <c r="S76" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M76,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T76" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M76,Trigger),"--")</f>
-        <v>53216</v>
+        <v>53219</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9621,11 +9714,11 @@
         <v>28</v>
       </c>
       <c r="G77" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H77" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_24Y_Quote</v>
       </c>
       <c r="I77" s="128">
@@ -9633,14 +9726,14 @@
       </c>
       <c r="J77" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H77,,B77,JoinCalendar,USDSTD!D77,USDSTD!E77,USDSTD!F77,USDSTD!G77,USDSTD!I77,USDSTD!C77,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b2#0004</v>
+        <v>obj_003bd#0002</v>
       </c>
       <c r="L77" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M77" s="139" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N77" s="148" t="str">
@@ -9689,11 +9782,11 @@
         <v>28</v>
       </c>
       <c r="G78" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H78" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_25Y_Quote</v>
       </c>
       <c r="I78" s="128">
@@ -9701,15 +9794,15 @@
       </c>
       <c r="J78" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H78,,B78,JoinCalendar,USDSTD!D78,USDSTD!E78,USDSTD!F78,USDSTD!G78,USDSTD!I78,USDSTD!C78,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b1#0004</v>
+        <v>obj_003b3#0002</v>
       </c>
       <c r="L78" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M78" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003ad#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003a0#0002</v>
       </c>
       <c r="N78" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M78,Trigger),"--")</f>
@@ -9717,7 +9810,7 @@
       </c>
       <c r="O78" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M78,Trigger),"--")</f>
-        <v>2.7050000000000001E-2</v>
+        <v>2.6950000000000002E-2</v>
       </c>
       <c r="P78" s="140" t="b">
         <v>1</v>
@@ -9730,11 +9823,11 @@
       </c>
       <c r="S78" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M78,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T78" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M78,Trigger),"--")</f>
-        <v>56870</v>
+        <v>56871</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9757,11 +9850,11 @@
         <v>28</v>
       </c>
       <c r="G79" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H79" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_26Y_Quote</v>
       </c>
       <c r="I79" s="128">
@@ -9769,15 +9862,15 @@
       </c>
       <c r="J79" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H79,,B79,JoinCalendar,USDSTD!D79,USDSTD!E79,USDSTD!F79,USDSTD!G79,USDSTD!I79,USDSTD!C79,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a3#0004</v>
+        <v>obj_003b1#0002</v>
       </c>
       <c r="L79" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M79" s="139" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003bd#0004</v>
+        <f t="shared" si="20"/>
+        <v>obj_003b0#0002</v>
       </c>
       <c r="N79" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M79,Trigger),"--")</f>
@@ -9785,7 +9878,7 @@
       </c>
       <c r="O79" s="141">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M79,Trigger),"--")</f>
-        <v>2.69E-2</v>
+        <v>2.681E-2</v>
       </c>
       <c r="P79" s="140" t="b">
         <v>1</v>
@@ -9798,11 +9891,11 @@
       </c>
       <c r="S79" s="142">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M79,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T79" s="142">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M79,Trigger),"--")</f>
-        <v>60521</v>
+        <v>60524</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9825,11 +9918,11 @@
         <v>28</v>
       </c>
       <c r="G80" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H80" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_27Y_Quote</v>
       </c>
       <c r="I80" s="128">
@@ -9837,15 +9930,15 @@
       </c>
       <c r="J80" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H80,,B80,JoinCalendar,USDSTD!D80,USDSTD!E80,USDSTD!F80,USDSTD!G80,USDSTD!I80,USDSTD!C80,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a8#0004</v>
+        <v>obj_003a9#0002</v>
       </c>
       <c r="L80" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
-      <c r="M80" s="278" t="str">
-        <f t="shared" si="19"/>
-        <v>obj_003c4#0004</v>
+      <c r="M80" s="277" t="str">
+        <f t="shared" si="20"/>
+        <v>obj_003c4#0002</v>
       </c>
       <c r="N80" s="152" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M80,Trigger),"--")</f>
@@ -9853,7 +9946,7 @@
       </c>
       <c r="O80" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M80,Trigger),"--")</f>
-        <v>2.6760840740000003E-2</v>
+        <v>2.668520165E-2</v>
       </c>
       <c r="P80" s="143" t="b">
         <v>1</v>
@@ -9866,11 +9959,11 @@
       </c>
       <c r="S80" s="151">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M80,Trigger),"--")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="T80" s="151">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M80,Trigger),"--")</f>
-        <v>64173</v>
+        <v>64178</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -9893,11 +9986,11 @@
         <v>28</v>
       </c>
       <c r="G81" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H81" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_28Y_Quote</v>
       </c>
       <c r="I81" s="128">
@@ -9905,7 +9998,7 @@
       </c>
       <c r="J81" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H81,,B81,JoinCalendar,USDSTD!D81,USDSTD!E81,USDSTD!F81,USDSTD!G81,USDSTD!I81,USDSTD!C81,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ae#0004</v>
+        <v>obj_003a5#0002</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -9928,11 +10021,11 @@
         <v>28</v>
       </c>
       <c r="G82" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H82" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_29Y_Quote</v>
       </c>
       <c r="I82" s="128">
@@ -9940,7 +10033,7 @@
       </c>
       <c r="J82" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H82,,B82,JoinCalendar,USDSTD!D82,USDSTD!E82,USDSTD!F82,USDSTD!G82,USDSTD!I82,USDSTD!C82,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003be#0004</v>
+        <v>obj_003bc#0002</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -9963,11 +10056,11 @@
         <v>28</v>
       </c>
       <c r="G83" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H83" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_30Y_Quote</v>
       </c>
       <c r="I83" s="128">
@@ -9975,7 +10068,7 @@
       </c>
       <c r="J83" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H83,,B83,JoinCalendar,USDSTD!D83,USDSTD!E83,USDSTD!F83,USDSTD!G83,USDSTD!I83,USDSTD!C83,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003b3#0004</v>
+        <v>obj_003b9#0002</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -9998,11 +10091,11 @@
         <v>28</v>
       </c>
       <c r="G84" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H84" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_35Y_Quote</v>
       </c>
       <c r="I84" s="128">
@@ -10030,11 +10123,11 @@
         <v>28</v>
       </c>
       <c r="G85" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H85" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_40Y_Quote</v>
       </c>
       <c r="I85" s="126">
@@ -10042,7 +10135,7 @@
       </c>
       <c r="J85" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H85,,B85,JoinCalendar,USDSTD!D85,USDSTD!E85,USDSTD!F85,USDSTD!G85,USDSTD!I85,USDSTD!C85,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ad#0004</v>
+        <v>obj_003a0#0002</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -10065,11 +10158,11 @@
         <v>28</v>
       </c>
       <c r="G86" s="60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H86" s="58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_50Y_Quote</v>
       </c>
       <c r="I86" s="126">
@@ -10077,7 +10170,7 @@
       </c>
       <c r="J86" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H86,,B86,JoinCalendar,USDSTD!D86,USDSTD!E86,USDSTD!F86,USDSTD!G86,USDSTD!I86,USDSTD!C86,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bd#0004</v>
+        <v>obj_003b0#0002</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -10100,11 +10193,11 @@
         <v>28</v>
       </c>
       <c r="G87" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>USD_CURVE_3M_60Y_Quote</v>
       </c>
       <c r="I87" s="129">
@@ -10112,7 +10205,7 @@
       </c>
       <c r="J87" s="2" t="str">
         <f>_xll.qlSwapRateHelper2(,H87,,B87,JoinCalendar,USDSTD!D87,USDSTD!E87,USDSTD!F87,USDSTD!G87,USDSTD!I87,USDSTD!C87,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c4#0004</v>
+        <v>obj_003c4#0002</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -10124,17 +10217,17 @@
   <mergeCells count="1">
     <mergeCell ref="AE2:AF2"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D87">
       <formula1>"Annual,Semiannual,EveryFourthMonth,Quarterly,Bimonthly,Monthly,Biweekly,Weekly,Daily,Once,NoFrequency"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51:F87 F21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51:F87 F4:F21">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF6">
       <formula1>"AllDepos,DeposBeforeFirstFuturesStartDate,DeposBeforeFirstFuturesStartDatePlusOne,DeposBeforeFirstFuturesExpiryDate"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E51:E87 E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E51:E87 E4:E21">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted,Half-Month Modified Following"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10192,7 +10285,7 @@
       <c r="Q1" s="165"/>
       <c r="R1" s="166">
         <f>_xll.ohTrigger(R4:R22)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S1" s="167"/>
     </row>
@@ -10235,7 +10328,7 @@
       <c r="I3" s="177"/>
       <c r="J3" s="178" t="str">
         <f>_xll.RData(J4:J22,K3:L3,"RTFEED:DTSIMI1","FRQ:1S",,K4)</f>
-        <v>Paused at 17:56:35</v>
+        <v>Updated at 11:30:51</v>
       </c>
       <c r="K3" s="179" t="s">
         <v>117</v>
@@ -10270,7 +10363,7 @@
       </c>
       <c r="D4" s="181" t="str">
         <f>_xll.qlSimpleQuote(C4,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USDOND_Mx_Quote#0003</v>
+        <v>USDOND_Mx_Quote#0002</v>
       </c>
       <c r="E4" s="182" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -10322,7 +10415,7 @@
       </c>
       <c r="D5" s="191" t="str">
         <f>_xll.qlSimpleQuote(C5,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USDTND_Mx_Quote#0003</v>
+        <v>USDTND_Mx_Quote#0002</v>
       </c>
       <c r="E5" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -10373,7 +10466,7 @@
       </c>
       <c r="D6" s="191" t="str">
         <f>_xll.qlSimpleQuote(C6,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USDSND_Mx_Quote#0003</v>
+        <v>USDSND_Mx_Quote#0002</v>
       </c>
       <c r="E6" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -10424,7 +10517,7 @@
       </c>
       <c r="D7" s="191" t="str">
         <f>_xll.qlSimpleQuote(C7,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USDSWD_Mx_Quote#0003</v>
+        <v>USDSWD_Mx_Quote#0002</v>
       </c>
       <c r="E7" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -10475,7 +10568,7 @@
       </c>
       <c r="D8" s="191" t="str">
         <f>_xll.qlSimpleQuote(C8,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD2WD_Mx_Quote#0003</v>
+        <v>USD2WD_Mx_Quote#0002</v>
       </c>
       <c r="E8" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -10492,14 +10585,14 @@
         <v>USDX2WD=</v>
       </c>
       <c r="K8" s="187">
-        <v>0.16379199999999999</v>
+        <v>0.164982609</v>
       </c>
       <c r="L8" s="187">
-        <v>0.173792</v>
+        <v>0.17498260900000001</v>
       </c>
       <c r="M8" s="187">
         <f t="shared" si="4"/>
-        <v>0.168792</v>
+        <v>0.16998260900000001</v>
       </c>
       <c r="N8" s="172"/>
       <c r="O8" s="194">
@@ -10507,7 +10600,7 @@
       </c>
       <c r="P8" s="172"/>
       <c r="Q8" s="187">
-        <v>0.168792</v>
+        <v>0.16998260900000001</v>
       </c>
       <c r="R8" s="189" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,Q8/100,Trigger)</f>
@@ -10526,7 +10619,7 @@
       </c>
       <c r="D9" s="191" t="str">
         <f>_xll.qlSimpleQuote(C9,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3WD_Mx_Quote#0003</v>
+        <v>USD3WD_Mx_Quote#0002</v>
       </c>
       <c r="E9" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -10543,14 +10636,14 @@
         <v>USDX3WD=</v>
       </c>
       <c r="K9" s="187">
-        <v>0.177484</v>
+        <v>0.17986521699999999</v>
       </c>
       <c r="L9" s="187">
-        <v>0.18748400000000001</v>
+        <v>0.189865217</v>
       </c>
       <c r="M9" s="187">
         <f t="shared" si="4"/>
-        <v>0.18248400000000001</v>
+        <v>0.184865217</v>
       </c>
       <c r="N9" s="172"/>
       <c r="O9" s="194">
@@ -10558,7 +10651,7 @@
       </c>
       <c r="P9" s="172"/>
       <c r="Q9" s="187">
-        <v>0.18248400000000001</v>
+        <v>0.184865217</v>
       </c>
       <c r="R9" s="189" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,Q9/100,Trigger)</f>
@@ -10577,7 +10670,7 @@
       </c>
       <c r="D10" s="191" t="str">
         <f>_xll.qlSimpleQuote(C10,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD1MD_Mx_Quote#0003</v>
+        <v>USD1MD_Mx_Quote#0002</v>
       </c>
       <c r="E10" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -10628,7 +10721,7 @@
       </c>
       <c r="D11" s="191" t="str">
         <f>_xll.qlSimpleQuote(C11,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD2MD_Mx_Quote#0003</v>
+        <v>USD2MD_Mx_Quote#0002</v>
       </c>
       <c r="E11" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -10679,7 +10772,7 @@
       </c>
       <c r="D12" s="191" t="str">
         <f>_xll.qlSimpleQuote(C12,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3MD_Mx_Quote#0003</v>
+        <v>USD3MD_Mx_Quote#0002</v>
       </c>
       <c r="E12" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -10730,7 +10823,7 @@
       </c>
       <c r="D13" s="191" t="str">
         <f>_xll.qlSimpleQuote(C13,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD4MD_Mx_Quote#0003</v>
+        <v>USD4MD_Mx_Quote#0002</v>
       </c>
       <c r="E13" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -10781,7 +10874,7 @@
       </c>
       <c r="D14" s="191" t="str">
         <f>_xll.qlSimpleQuote(C14,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD5MD_Mx_Quote#0003</v>
+        <v>USD5MD_Mx_Quote#0002</v>
       </c>
       <c r="E14" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -10798,14 +10891,14 @@
         <v>USDX5MD=</v>
       </c>
       <c r="K14" s="187">
-        <v>0.46835164799999995</v>
+        <v>0.47287912099999996</v>
       </c>
       <c r="L14" s="187">
-        <v>0.47835164800000002</v>
+        <v>0.48287912100000002</v>
       </c>
       <c r="M14" s="187">
         <f t="shared" si="4"/>
-        <v>0.47335164799999996</v>
+        <v>0.47787912099999996</v>
       </c>
       <c r="N14" s="172"/>
       <c r="O14" s="194">
@@ -10813,7 +10906,7 @@
       </c>
       <c r="P14" s="172"/>
       <c r="Q14" s="187">
-        <v>0.47335164799999996</v>
+        <v>0.47787912099999996</v>
       </c>
       <c r="R14" s="189" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,Q14/100,Trigger)</f>
@@ -10832,7 +10925,7 @@
       </c>
       <c r="D15" s="191" t="str">
         <f>_xll.qlSimpleQuote(C15,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD6MD_Mx_Quote#0003</v>
+        <v>USD6MD_Mx_Quote#0002</v>
       </c>
       <c r="E15" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -10883,7 +10976,7 @@
       </c>
       <c r="D16" s="191" t="str">
         <f>_xll.qlSimpleQuote(C16,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD7MD_Mx_Quote#0003</v>
+        <v>USD7MD_Mx_Quote#0002</v>
       </c>
       <c r="E16" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -10900,14 +10993,14 @@
         <v>USDX7MD=</v>
       </c>
       <c r="K16" s="187">
-        <v>0.58687594599999993</v>
+        <v>0.58716331499999996</v>
       </c>
       <c r="L16" s="187">
-        <v>0.59687594600000005</v>
+        <v>0.59716331499999997</v>
       </c>
       <c r="M16" s="187">
         <f t="shared" si="4"/>
-        <v>0.59187594600000004</v>
+        <v>0.59216331499999997</v>
       </c>
       <c r="N16" s="172"/>
       <c r="O16" s="194">
@@ -10915,7 +11008,7 @@
       </c>
       <c r="P16" s="172"/>
       <c r="Q16" s="187">
-        <v>0.59187594600000004</v>
+        <v>0.59216331499999997</v>
       </c>
       <c r="R16" s="189" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,Q16/100,Trigger)</f>
@@ -10934,7 +11027,7 @@
       </c>
       <c r="D17" s="191" t="str">
         <f>_xll.qlSimpleQuote(C17,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD8MD_Mx_Quote#0003</v>
+        <v>USD8MD_Mx_Quote#0002</v>
       </c>
       <c r="E17" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -10951,14 +11044,14 @@
         <v>USDX8MD=</v>
       </c>
       <c r="K17" s="187">
-        <v>0.638046216</v>
+        <v>0.642041576</v>
       </c>
       <c r="L17" s="187">
-        <v>0.64804621600000001</v>
+        <v>0.65204157600000001</v>
       </c>
       <c r="M17" s="187">
         <f t="shared" si="4"/>
-        <v>0.643046216</v>
+        <v>0.64704157600000001</v>
       </c>
       <c r="N17" s="172"/>
       <c r="O17" s="194">
@@ -10966,7 +11059,7 @@
       </c>
       <c r="P17" s="172"/>
       <c r="Q17" s="187">
-        <v>0.643046216</v>
+        <v>0.64704157600000001</v>
       </c>
       <c r="R17" s="189" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,Q17/100,Trigger)</f>
@@ -10985,7 +11078,7 @@
       </c>
       <c r="D18" s="191" t="str">
         <f>_xll.qlSimpleQuote(C18,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD9MD_Mx_Quote#0003</v>
+        <v>USD9MD_Mx_Quote#0002</v>
       </c>
       <c r="E18" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -11002,14 +11095,14 @@
         <v>USDX9MD=</v>
       </c>
       <c r="K18" s="187">
-        <v>0.69433351399999998</v>
+        <v>0.69177500000000003</v>
       </c>
       <c r="L18" s="187">
-        <v>0.70433351399999999</v>
+        <v>0.70177500000000004</v>
       </c>
       <c r="M18" s="187">
         <f t="shared" si="4"/>
-        <v>0.69933351399999999</v>
+        <v>0.69677500000000003</v>
       </c>
       <c r="N18" s="172"/>
       <c r="O18" s="194">
@@ -11017,7 +11110,7 @@
       </c>
       <c r="P18" s="172"/>
       <c r="Q18" s="187">
-        <v>0.69933351399999999</v>
+        <v>0.69677500000000003</v>
       </c>
       <c r="R18" s="189" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,Q18/100,Trigger)</f>
@@ -11036,7 +11129,7 @@
       </c>
       <c r="D19" s="191" t="str">
         <f>_xll.qlSimpleQuote(C19,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD10MD_Mx_Quote#0003</v>
+        <v>USD10MD_Mx_Quote#0002</v>
       </c>
       <c r="E19" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -11053,14 +11146,14 @@
         <v>USDX10MD=</v>
       </c>
       <c r="K19" s="187">
-        <v>0.74209243199999997</v>
+        <v>0.74322337000000005</v>
       </c>
       <c r="L19" s="187">
-        <v>0.75209243199999998</v>
+        <v>0.75322336999999995</v>
       </c>
       <c r="M19" s="187">
         <f t="shared" si="4"/>
-        <v>0.74709243199999997</v>
+        <v>0.74822337000000005</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="194">
@@ -11068,7 +11161,7 @@
       </c>
       <c r="P19" s="172"/>
       <c r="Q19" s="187">
-        <v>0.74709243199999997</v>
+        <v>0.74822337000000005</v>
       </c>
       <c r="R19" s="189" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D19,Q19/100,Trigger)</f>
@@ -11087,7 +11180,7 @@
       </c>
       <c r="D20" s="191" t="str">
         <f>_xll.qlSimpleQuote(C20,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD11MD_Mx_Quote#0003</v>
+        <v>USD11MD_Mx_Quote#0002</v>
       </c>
       <c r="E20" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -11104,14 +11197,14 @@
         <v>USDX11MD=</v>
       </c>
       <c r="K20" s="187">
-        <v>0.79496837799999998</v>
+        <v>0.79810163000000001</v>
       </c>
       <c r="L20" s="187">
-        <v>0.8049683780000001</v>
+        <v>0.80810163000000002</v>
       </c>
       <c r="M20" s="187">
         <f t="shared" si="4"/>
-        <v>0.79996837799999998</v>
+        <v>0.80310163000000001</v>
       </c>
       <c r="N20" s="172"/>
       <c r="O20" s="194">
@@ -11119,7 +11212,7 @@
       </c>
       <c r="P20" s="172"/>
       <c r="Q20" s="187">
-        <v>0.79996837799999998</v>
+        <v>0.80310163000000001</v>
       </c>
       <c r="R20" s="189" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,Q20/100,Trigger)</f>
@@ -11138,7 +11231,7 @@
       </c>
       <c r="D21" s="191" t="str">
         <f>_xll.qlSimpleQuote(C21,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD1YD_Mx_Quote#0003</v>
+        <v>USD1YD_Mx_Quote#0002</v>
       </c>
       <c r="E21" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -11187,7 +11280,7 @@
       </c>
       <c r="D22" s="201" t="str">
         <f>_xll.qlSimpleQuote(C22,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_STUB_Quote#0003</v>
+        <v>USD_STUB_Quote#0002</v>
       </c>
       <c r="E22" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -11201,14 +11294,14 @@
         <v>150</v>
       </c>
       <c r="K22" s="188">
-        <v>0.53752837799999997</v>
+        <v>0.68848994600000002</v>
       </c>
       <c r="L22" s="188">
-        <v>0.55752837799999999</v>
+        <v>0.70848994600000004</v>
       </c>
       <c r="M22" s="188">
         <f t="shared" si="4"/>
-        <v>0.54752837799999998</v>
+        <v>0.69848994600000003</v>
       </c>
       <c r="N22" s="172"/>
       <c r="O22" s="205">
@@ -11216,7 +11309,7 @@
       </c>
       <c r="P22" s="172"/>
       <c r="Q22" s="188">
-        <v>0.54752837799999998</v>
+        <v>0.69848994600000003</v>
       </c>
       <c r="R22" s="199" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D22,Q22/100,Trigger)</f>
@@ -11306,7 +11399,7 @@
       <c r="Q1" s="212"/>
       <c r="R1" s="166">
         <f>_xll.ohTrigger(R4:R41)</f>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="S1" s="75"/>
     </row>
@@ -11348,7 +11441,7 @@
       <c r="I3" s="217"/>
       <c r="J3" s="178" t="str">
         <f>_xll.RData(Instruments,K3:L3,"RTFEED:DTSIMI1","FRQ:1S",,K4)</f>
-        <v>Paused at 17:56:35</v>
+        <v>Updated at 11:38:14</v>
       </c>
       <c r="K3" s="179" t="s">
         <v>117</v>
@@ -11384,7 +11477,7 @@
       </c>
       <c r="D4" s="57" t="str">
         <f>_xll.qlSimpleQuote(C4,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_1Y_Quote#0003</v>
+        <v>USD_CURVE_3M_1Y_Quote#0002</v>
       </c>
       <c r="E4" s="220" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -11400,14 +11493,14 @@
         <v>USD_CURVE_3M_1Y</v>
       </c>
       <c r="K4" s="187">
-        <v>0.54407281000000007</v>
+        <v>0.54622977400000006</v>
       </c>
       <c r="L4" s="187">
-        <v>0.54407281000000007</v>
+        <v>0.54622977400000006</v>
       </c>
       <c r="M4" s="187">
         <f>IF(ISERROR(AVERAGE(K4,L4)),#NUM!,AVERAGE(K4,L4))</f>
-        <v>0.54407281000000007</v>
+        <v>0.54622977400000006</v>
       </c>
       <c r="N4" s="222"/>
       <c r="O4" s="223">
@@ -11416,11 +11509,11 @@
       <c r="P4" s="222"/>
       <c r="Q4" s="187">
         <f t="array" ref="Q4:Q40">QuoteLive</f>
-        <v>0.54407281000000007</v>
-      </c>
-      <c r="R4" s="198" t="e">
+        <v>0.54622977400000006</v>
+      </c>
+      <c r="R4" s="198">
         <f>_xll.qlSimpleQuoteSetValue(D4,Q4/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16"/>
       <c r="Y4" s="218"/>
@@ -11436,7 +11529,7 @@
       </c>
       <c r="D5" s="62" t="str">
         <f>_xll.qlSimpleQuote(C5,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_15M_Quote#0003</v>
+        <v>USD_CURVE_3M_15M_Quote#0002</v>
       </c>
       <c r="E5" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -11487,7 +11580,7 @@
       </c>
       <c r="D6" s="62" t="str">
         <f>_xll.qlSimpleQuote(C6,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_18M_Quote#0003</v>
+        <v>USD_CURVE_3M_18M_Quote#0002</v>
       </c>
       <c r="E6" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -11538,7 +11631,7 @@
       </c>
       <c r="D7" s="62" t="str">
         <f>_xll.qlSimpleQuote(C7,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_21M_Quote#0003</v>
+        <v>USD_CURVE_3M_21M_Quote#0002</v>
       </c>
       <c r="E7" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -11589,7 +11682,7 @@
       </c>
       <c r="D8" s="62" t="str">
         <f>_xll.qlSimpleQuote(C8,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_2Y_Quote#0003</v>
+        <v>USD_CURVE_3M_2Y_Quote#0002</v>
       </c>
       <c r="E8" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -11605,14 +11698,14 @@
         <v>USD_CURVE_3M_2Y</v>
       </c>
       <c r="K8" s="187">
-        <v>0.86393887300000005</v>
+        <v>0.86304651999999993</v>
       </c>
       <c r="L8" s="187">
-        <v>0.86393887300000005</v>
+        <v>0.86304651999999993</v>
       </c>
       <c r="M8" s="187">
         <f t="shared" si="4"/>
-        <v>0.86393887300000005</v>
+        <v>0.86304651999999993</v>
       </c>
       <c r="N8" s="222"/>
       <c r="O8" s="223">
@@ -11620,11 +11713,11 @@
       </c>
       <c r="P8" s="222"/>
       <c r="Q8" s="187">
-        <v>0.86393887300000005</v>
-      </c>
-      <c r="R8" s="189" t="e">
+        <v>0.86304651999999993</v>
+      </c>
+      <c r="R8" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D8,Q8/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S8" s="16"/>
       <c r="Y8" s="218"/>
@@ -11640,7 +11733,7 @@
       </c>
       <c r="D9" s="62" t="str">
         <f>_xll.qlSimpleQuote(C9,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_3Y_Quote#0003</v>
+        <v>USD_CURVE_3M_3Y_Quote#0002</v>
       </c>
       <c r="E9" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -11656,14 +11749,14 @@
         <v>USD_CURVE_3M_3Y</v>
       </c>
       <c r="K9" s="187">
-        <v>1.143</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="L9" s="187">
-        <v>1.143</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="M9" s="187">
         <f t="shared" si="4"/>
-        <v>1.143</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="N9" s="222"/>
       <c r="O9" s="223">
@@ -11671,11 +11764,11 @@
       </c>
       <c r="P9" s="222"/>
       <c r="Q9" s="187">
-        <v>1.143</v>
-      </c>
-      <c r="R9" s="189" t="e">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="R9" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D9,Q9/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S9" s="16"/>
       <c r="Y9" s="218"/>
@@ -11691,7 +11784,7 @@
       </c>
       <c r="D10" s="62" t="str">
         <f>_xll.qlSimpleQuote(C10,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_4Y_Quote#0003</v>
+        <v>USD_CURVE_3M_4Y_Quote#0002</v>
       </c>
       <c r="E10" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -11707,14 +11800,14 @@
         <v>USD_CURVE_3M_4Y</v>
       </c>
       <c r="K10" s="187">
-        <v>1.385</v>
+        <v>1.38</v>
       </c>
       <c r="L10" s="187">
-        <v>1.385</v>
+        <v>1.38</v>
       </c>
       <c r="M10" s="187">
         <f t="shared" si="4"/>
-        <v>1.385</v>
+        <v>1.38</v>
       </c>
       <c r="N10" s="222"/>
       <c r="O10" s="223">
@@ -11722,11 +11815,11 @@
       </c>
       <c r="P10" s="222"/>
       <c r="Q10" s="187">
-        <v>1.385</v>
-      </c>
-      <c r="R10" s="189" t="e">
+        <v>1.38</v>
+      </c>
+      <c r="R10" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D10,Q10/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S10" s="16"/>
       <c r="Y10" s="218"/>
@@ -11742,7 +11835,7 @@
       </c>
       <c r="D11" s="62" t="str">
         <f>_xll.qlSimpleQuote(C11,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_5Y_Quote#0003</v>
+        <v>USD_CURVE_3M_5Y_Quote#0002</v>
       </c>
       <c r="E11" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -11758,14 +11851,14 @@
         <v>USD_CURVE_3M_5Y</v>
       </c>
       <c r="K11" s="187">
-        <v>1.591</v>
+        <v>1.585</v>
       </c>
       <c r="L11" s="187">
-        <v>1.591</v>
+        <v>1.585</v>
       </c>
       <c r="M11" s="187">
         <f t="shared" si="4"/>
-        <v>1.591</v>
+        <v>1.585</v>
       </c>
       <c r="N11" s="222"/>
       <c r="O11" s="223">
@@ -11773,11 +11866,11 @@
       </c>
       <c r="P11" s="222"/>
       <c r="Q11" s="187">
-        <v>1.591</v>
-      </c>
-      <c r="R11" s="189" t="e">
+        <v>1.585</v>
+      </c>
+      <c r="R11" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D11,Q11/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S11" s="16"/>
       <c r="Y11" s="218"/>
@@ -11793,7 +11886,7 @@
       </c>
       <c r="D12" s="62" t="str">
         <f>_xll.qlSimpleQuote(C12,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_6Y_Quote#0003</v>
+        <v>USD_CURVE_3M_6Y_Quote#0002</v>
       </c>
       <c r="E12" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -11809,14 +11902,14 @@
         <v>USD_CURVE_3M_6Y</v>
       </c>
       <c r="K12" s="187">
-        <v>1.7690000000000001</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="L12" s="187">
-        <v>1.7690000000000001</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="M12" s="187">
         <f t="shared" si="4"/>
-        <v>1.7690000000000001</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="N12" s="222"/>
       <c r="O12" s="223">
@@ -11824,11 +11917,11 @@
       </c>
       <c r="P12" s="222"/>
       <c r="Q12" s="187">
-        <v>1.7690000000000001</v>
-      </c>
-      <c r="R12" s="189" t="e">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="R12" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D12,Q12/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S12" s="16"/>
       <c r="Y12" s="218"/>
@@ -11844,7 +11937,7 @@
       </c>
       <c r="D13" s="62" t="str">
         <f>_xll.qlSimpleQuote(C13,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_7Y_Quote#0003</v>
+        <v>USD_CURVE_3M_7Y_Quote#0002</v>
       </c>
       <c r="E13" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -11860,14 +11953,14 @@
         <v>USD_CURVE_3M_7Y</v>
       </c>
       <c r="K13" s="187">
-        <v>1.915</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="L13" s="187">
-        <v>1.915</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="M13" s="187">
         <f t="shared" si="4"/>
-        <v>1.915</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="N13" s="222"/>
       <c r="O13" s="223">
@@ -11875,11 +11968,11 @@
       </c>
       <c r="P13" s="222"/>
       <c r="Q13" s="187">
-        <v>1.915</v>
-      </c>
-      <c r="R13" s="189" t="e">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="R13" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D13,Q13/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S13" s="16"/>
       <c r="Y13" s="218"/>
@@ -11895,7 +11988,7 @@
       </c>
       <c r="D14" s="62" t="str">
         <f>_xll.qlSimpleQuote(C14,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_8Y_Quote#0003</v>
+        <v>USD_CURVE_3M_8Y_Quote#0002</v>
       </c>
       <c r="E14" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -11911,14 +12004,14 @@
         <v>USD_CURVE_3M_8Y</v>
       </c>
       <c r="K14" s="187">
-        <v>2.0369999999999999</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="L14" s="187">
-        <v>2.0369999999999999</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="M14" s="187">
         <f t="shared" si="4"/>
-        <v>2.0369999999999999</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="N14" s="222"/>
       <c r="O14" s="223">
@@ -11926,11 +12019,11 @@
       </c>
       <c r="P14" s="222"/>
       <c r="Q14" s="187">
-        <v>2.0369999999999999</v>
-      </c>
-      <c r="R14" s="189" t="e">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="R14" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D14,Q14/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S14" s="16"/>
       <c r="Y14" s="218"/>
@@ -11946,7 +12039,7 @@
       </c>
       <c r="D15" s="62" t="str">
         <f>_xll.qlSimpleQuote(C15,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_9Y_Quote#0003</v>
+        <v>USD_CURVE_3M_9Y_Quote#0002</v>
       </c>
       <c r="E15" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -11962,14 +12055,14 @@
         <v>USD_CURVE_3M_9Y</v>
       </c>
       <c r="K15" s="187">
-        <v>2.137</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="L15" s="187">
-        <v>2.137</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="M15" s="187">
         <f t="shared" si="4"/>
-        <v>2.137</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="N15" s="222"/>
       <c r="O15" s="223">
@@ -11977,11 +12070,11 @@
       </c>
       <c r="P15" s="222"/>
       <c r="Q15" s="187">
-        <v>2.137</v>
-      </c>
-      <c r="R15" s="189" t="e">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="R15" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D15,Q15/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S15" s="16"/>
       <c r="Y15" s="218"/>
@@ -11997,7 +12090,7 @@
       </c>
       <c r="D16" s="62" t="str">
         <f>_xll.qlSimpleQuote(C16,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_10Y_Quote#0003</v>
+        <v>USD_CURVE_3M_10Y_Quote#0002</v>
       </c>
       <c r="E16" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -12013,14 +12106,14 @@
         <v>USD_CURVE_3M_10Y</v>
       </c>
       <c r="K16" s="187">
-        <v>2.2200000000000002</v>
+        <v>2.218</v>
       </c>
       <c r="L16" s="187">
-        <v>2.2200000000000002</v>
+        <v>2.218</v>
       </c>
       <c r="M16" s="187">
         <f t="shared" si="4"/>
-        <v>2.2200000000000002</v>
+        <v>2.218</v>
       </c>
       <c r="N16" s="222"/>
       <c r="O16" s="223">
@@ -12028,11 +12121,11 @@
       </c>
       <c r="P16" s="222"/>
       <c r="Q16" s="187">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="R16" s="189" t="e">
+        <v>2.218</v>
+      </c>
+      <c r="R16" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D16,Q16/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S16" s="16"/>
       <c r="Y16" s="218"/>
@@ -12048,7 +12141,7 @@
       </c>
       <c r="D17" s="62" t="str">
         <f>_xll.qlSimpleQuote(C17,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_11Y_Quote#0003</v>
+        <v>USD_CURVE_3M_11Y_Quote#0002</v>
       </c>
       <c r="E17" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -12064,14 +12157,14 @@
         <v>USD_CURVE_3M_11Y</v>
       </c>
       <c r="K17" s="187">
-        <v>2.291771094</v>
+        <v>2.2889748619999999</v>
       </c>
       <c r="L17" s="187">
-        <v>2.291771094</v>
+        <v>2.2889748619999999</v>
       </c>
       <c r="M17" s="187">
         <f t="shared" si="4"/>
-        <v>2.291771094</v>
+        <v>2.2889748619999999</v>
       </c>
       <c r="N17" s="222"/>
       <c r="O17" s="223">
@@ -12079,11 +12172,11 @@
       </c>
       <c r="P17" s="222"/>
       <c r="Q17" s="187">
-        <v>2.291771094</v>
-      </c>
-      <c r="R17" s="189" t="e">
+        <v>2.2889748619999999</v>
+      </c>
+      <c r="R17" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D17,Q17/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-1.5700000015328452E-9</v>
       </c>
       <c r="S17" s="16"/>
       <c r="Y17" s="218"/>
@@ -12099,7 +12192,7 @@
       </c>
       <c r="D18" s="62" t="str">
         <f>_xll.qlSimpleQuote(C18,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_12Y_Quote#0003</v>
+        <v>USD_CURVE_3M_12Y_Quote#0002</v>
       </c>
       <c r="E18" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -12115,14 +12208,14 @@
         <v>USD_CURVE_3M_12Y</v>
       </c>
       <c r="K18" s="187">
-        <v>2.3530000000000002</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="L18" s="187">
-        <v>2.3530000000000002</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="M18" s="187">
         <f t="shared" si="4"/>
-        <v>2.3530000000000002</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="N18" s="222"/>
       <c r="O18" s="223">
@@ -12130,11 +12223,11 @@
       </c>
       <c r="P18" s="222"/>
       <c r="Q18" s="187">
-        <v>2.3530000000000002</v>
-      </c>
-      <c r="R18" s="189" t="e">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="R18" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D18,Q18/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S18" s="16"/>
       <c r="Y18" s="218"/>
@@ -12150,7 +12243,7 @@
       </c>
       <c r="D19" s="62" t="str">
         <f>_xll.qlSimpleQuote(C19,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_13Y_Quote#0003</v>
+        <v>USD_CURVE_3M_13Y_Quote#0002</v>
       </c>
       <c r="E19" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -12166,14 +12259,14 @@
         <v>USD_CURVE_3M_13Y</v>
       </c>
       <c r="K19" s="187">
-        <v>2.4029802130000002</v>
+        <v>2.398863484</v>
       </c>
       <c r="L19" s="187">
-        <v>2.4029802130000002</v>
+        <v>2.398863484</v>
       </c>
       <c r="M19" s="187">
         <f t="shared" si="4"/>
-        <v>2.4029802130000002</v>
+        <v>2.398863484</v>
       </c>
       <c r="N19" s="222"/>
       <c r="O19" s="223">
@@ -12181,11 +12274,11 @@
       </c>
       <c r="P19" s="222"/>
       <c r="Q19" s="187">
-        <v>2.4029802130000002</v>
-      </c>
-      <c r="R19" s="189" t="e">
+        <v>2.398863484</v>
+      </c>
+      <c r="R19" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D19,Q19/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>6.6100000022106808E-9</v>
       </c>
       <c r="S19" s="16"/>
       <c r="Y19" s="218"/>
@@ -12201,7 +12294,7 @@
       </c>
       <c r="D20" s="62" t="str">
         <f>_xll.qlSimpleQuote(C20,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_14Y_Quote#0003</v>
+        <v>USD_CURVE_3M_14Y_Quote#0002</v>
       </c>
       <c r="E20" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -12217,14 +12310,14 @@
         <v>USD_CURVE_3M_14Y</v>
       </c>
       <c r="K20" s="187">
-        <v>2.4446480909999999</v>
+        <v>2.4404405640000002</v>
       </c>
       <c r="L20" s="187">
-        <v>2.4446480909999999</v>
+        <v>2.4404405640000002</v>
       </c>
       <c r="M20" s="187">
         <f t="shared" si="4"/>
-        <v>2.4446480909999999</v>
+        <v>2.4404405640000002</v>
       </c>
       <c r="N20" s="222"/>
       <c r="O20" s="223">
@@ -12232,11 +12325,11 @@
       </c>
       <c r="P20" s="222"/>
       <c r="Q20" s="187">
-        <v>2.4446480909999999</v>
-      </c>
-      <c r="R20" s="189" t="e">
+        <v>2.4404405640000002</v>
+      </c>
+      <c r="R20" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D20,Q20/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>9.4600000020983455E-9</v>
       </c>
       <c r="S20" s="16"/>
       <c r="Y20" s="218"/>
@@ -12252,7 +12345,7 @@
       </c>
       <c r="D21" s="62" t="str">
         <f>_xll.qlSimpleQuote(C21,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_15Y_Quote#0003</v>
+        <v>USD_CURVE_3M_15Y_Quote#0002</v>
       </c>
       <c r="E21" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -12268,14 +12361,14 @@
         <v>USD_CURVE_3M_15Y</v>
       </c>
       <c r="K21" s="187">
-        <v>2.48</v>
+        <v>2.476</v>
       </c>
       <c r="L21" s="187">
-        <v>2.48</v>
+        <v>2.476</v>
       </c>
       <c r="M21" s="187">
         <f t="shared" si="4"/>
-        <v>2.48</v>
+        <v>2.476</v>
       </c>
       <c r="N21" s="222"/>
       <c r="O21" s="223">
@@ -12283,11 +12376,11 @@
       </c>
       <c r="P21" s="222"/>
       <c r="Q21" s="187">
-        <v>2.48</v>
-      </c>
-      <c r="R21" s="189" t="e">
+        <v>2.476</v>
+      </c>
+      <c r="R21" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D21,Q21/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S21" s="16"/>
       <c r="Y21" s="218"/>
@@ -12303,7 +12396,7 @@
       </c>
       <c r="D22" s="62" t="str">
         <f>_xll.qlSimpleQuote(C22,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_16Y_Quote#0003</v>
+        <v>USD_CURVE_3M_16Y_Quote#0002</v>
       </c>
       <c r="E22" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -12319,14 +12412,14 @@
         <v>USD_CURVE_3M_16Y</v>
       </c>
       <c r="K22" s="187">
-        <v>2.5105371290000003</v>
+        <v>2.5064102479999999</v>
       </c>
       <c r="L22" s="187">
-        <v>2.5105371290000003</v>
+        <v>2.5064102479999999</v>
       </c>
       <c r="M22" s="187">
         <f t="shared" si="4"/>
-        <v>2.5105371290000003</v>
+        <v>2.5064102479999999</v>
       </c>
       <c r="N22" s="222"/>
       <c r="O22" s="223">
@@ -12334,11 +12427,11 @@
       </c>
       <c r="P22" s="222"/>
       <c r="Q22" s="187">
-        <v>2.5105371290000003</v>
-      </c>
-      <c r="R22" s="189" t="e">
+        <v>2.5064102479999999</v>
+      </c>
+      <c r="R22" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D22,Q22/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.3620000001028929E-8</v>
       </c>
       <c r="S22" s="16"/>
       <c r="Y22" s="218"/>
@@ -12354,7 +12447,7 @@
       </c>
       <c r="D23" s="62" t="str">
         <f>_xll.qlSimpleQuote(C23,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_17Y_Quote#0003</v>
+        <v>USD_CURVE_3M_17Y_Quote#0002</v>
       </c>
       <c r="E23" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -12370,14 +12463,14 @@
         <v>USD_CURVE_3M_17Y</v>
       </c>
       <c r="K23" s="187">
-        <v>2.5372498539999997</v>
+        <v>2.5328101009999999</v>
       </c>
       <c r="L23" s="187">
-        <v>2.5372498539999997</v>
+        <v>2.5328101009999999</v>
       </c>
       <c r="M23" s="187">
         <f t="shared" si="4"/>
-        <v>2.5372498539999997</v>
+        <v>2.5328101009999999</v>
       </c>
       <c r="N23" s="222"/>
       <c r="O23" s="223">
@@ -12385,11 +12478,11 @@
       </c>
       <c r="P23" s="222"/>
       <c r="Q23" s="187">
-        <v>2.5372498539999997</v>
-      </c>
-      <c r="R23" s="189" t="e">
+        <v>2.5328101009999999</v>
+      </c>
+      <c r="R23" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D23,Q23/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-4.7790000002462252E-8</v>
       </c>
       <c r="S23" s="16"/>
       <c r="Y23" s="218"/>
@@ -12405,7 +12498,7 @@
       </c>
       <c r="D24" s="62" t="str">
         <f>_xll.qlSimpleQuote(C24,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_18Y_Quote#0003</v>
+        <v>USD_CURVE_3M_18Y_Quote#0002</v>
       </c>
       <c r="E24" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -12421,14 +12514,14 @@
         <v>USD_CURVE_3M_18Y</v>
       </c>
       <c r="K24" s="187">
-        <v>2.560131621</v>
+        <v>2.5556161450000001</v>
       </c>
       <c r="L24" s="187">
-        <v>2.560131621</v>
+        <v>2.5556161450000001</v>
       </c>
       <c r="M24" s="187">
         <f t="shared" si="4"/>
-        <v>2.560131621</v>
+        <v>2.5556161450000001</v>
       </c>
       <c r="N24" s="222"/>
       <c r="O24" s="223">
@@ -12436,11 +12529,11 @@
       </c>
       <c r="P24" s="222"/>
       <c r="Q24" s="187">
-        <v>2.560131621</v>
-      </c>
-      <c r="R24" s="189" t="e">
+        <v>2.5556161450000001</v>
+      </c>
+      <c r="R24" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D24,Q24/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-5.852999999944597E-8</v>
       </c>
       <c r="S24" s="16"/>
       <c r="Y24" s="218"/>
@@ -12456,7 +12549,7 @@
       </c>
       <c r="D25" s="62" t="str">
         <f>_xll.qlSimpleQuote(C25,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_19Y_Quote#0003</v>
+        <v>USD_CURVE_3M_19Y_Quote#0002</v>
       </c>
       <c r="E25" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -12472,14 +12565,14 @@
         <v>USD_CURVE_3M_19Y</v>
       </c>
       <c r="K25" s="187">
-        <v>2.5799222510000002</v>
+        <v>2.575236071</v>
       </c>
       <c r="L25" s="187">
-        <v>2.5799222510000002</v>
+        <v>2.575236071</v>
       </c>
       <c r="M25" s="187">
         <f t="shared" si="4"/>
-        <v>2.5799222510000002</v>
+        <v>2.575236071</v>
       </c>
       <c r="N25" s="222"/>
       <c r="O25" s="223">
@@ -12487,11 +12580,11 @@
       </c>
       <c r="P25" s="222"/>
       <c r="Q25" s="187">
-        <v>2.5799222510000002</v>
-      </c>
-      <c r="R25" s="189" t="e">
+        <v>2.575236071</v>
+      </c>
+      <c r="R25" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D25,Q25/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-4.5279999999481291E-8</v>
       </c>
       <c r="S25" s="16"/>
       <c r="Y25" s="218"/>
@@ -12507,7 +12600,7 @@
       </c>
       <c r="D26" s="62" t="str">
         <f>_xll.qlSimpleQuote(C26,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_20Y_Quote#0003</v>
+        <v>USD_CURVE_3M_20Y_Quote#0002</v>
       </c>
       <c r="E26" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -12523,14 +12616,14 @@
         <v>USD_CURVE_3M_20Y</v>
       </c>
       <c r="K26" s="187">
-        <v>2.597</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="L26" s="187">
-        <v>2.597</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="M26" s="187">
         <f t="shared" si="4"/>
-        <v>2.597</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="N26" s="222"/>
       <c r="O26" s="223">
@@ -12538,11 +12631,11 @@
       </c>
       <c r="P26" s="222"/>
       <c r="Q26" s="187">
-        <v>2.597</v>
-      </c>
-      <c r="R26" s="189" t="e">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="R26" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D26,Q26/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S26" s="16"/>
       <c r="Y26" s="218"/>
@@ -12558,7 +12651,7 @@
       </c>
       <c r="D27" s="62" t="str">
         <f>_xll.qlSimpleQuote(C27,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_21Y_Quote#0003</v>
+        <v>USD_CURVE_3M_21Y_Quote#0002</v>
       </c>
       <c r="E27" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -12574,14 +12667,14 @@
         <v>USD_CURVE_3M_21Y</v>
       </c>
       <c r="K27" s="187">
-        <v>2.6116667520000001</v>
+        <v>2.6063160009999997</v>
       </c>
       <c r="L27" s="187">
-        <v>2.6116667520000001</v>
+        <v>2.6063160009999997</v>
       </c>
       <c r="M27" s="187">
         <f t="shared" si="4"/>
-        <v>2.6116667520000001</v>
+        <v>2.6063160009999997</v>
       </c>
       <c r="N27" s="222"/>
       <c r="O27" s="223">
@@ -12589,11 +12682,11 @@
       </c>
       <c r="P27" s="222"/>
       <c r="Q27" s="187">
-        <v>2.6116667520000001</v>
-      </c>
-      <c r="R27" s="189" t="e">
+        <v>2.6063160009999997</v>
+      </c>
+      <c r="R27" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D27,Q27/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>7.5259999995913596E-8</v>
       </c>
       <c r="S27" s="16"/>
       <c r="Y27" s="218"/>
@@ -12609,7 +12702,7 @@
       </c>
       <c r="D28" s="62" t="str">
         <f>_xll.qlSimpleQuote(C28,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_22Y_Quote#0003</v>
+        <v>USD_CURVE_3M_22Y_Quote#0002</v>
       </c>
       <c r="E28" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -12625,14 +12718,14 @@
         <v>USD_CURVE_3M_22Y</v>
       </c>
       <c r="K28" s="187">
-        <v>2.6242902250000002</v>
+        <v>2.6184711790000001</v>
       </c>
       <c r="L28" s="187">
-        <v>2.6242902250000002</v>
+        <v>2.6184711790000001</v>
       </c>
       <c r="M28" s="187">
         <f t="shared" si="4"/>
-        <v>2.6242902250000002</v>
+        <v>2.6184711790000001</v>
       </c>
       <c r="N28" s="222"/>
       <c r="O28" s="223">
@@ -12640,11 +12733,11 @@
       </c>
       <c r="P28" s="222"/>
       <c r="Q28" s="187">
-        <v>2.6242902250000002</v>
-      </c>
-      <c r="R28" s="189" t="e">
+        <v>2.6184711790000001</v>
+      </c>
+      <c r="R28" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D28,Q28/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.4459000000077715E-7</v>
       </c>
       <c r="S28" s="16"/>
       <c r="Y28" s="218"/>
@@ -12660,7 +12753,7 @@
       </c>
       <c r="D29" s="62" t="str">
         <f>_xll.qlSimpleQuote(C29,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_23Y_Quote#0003</v>
+        <v>USD_CURVE_3M_23Y_Quote#0002</v>
       </c>
       <c r="E29" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -12676,14 +12769,14 @@
         <v>USD_CURVE_3M_23Y</v>
       </c>
       <c r="K29" s="187">
-        <v>2.6353954310000001</v>
+        <v>2.629082404</v>
       </c>
       <c r="L29" s="187">
-        <v>2.6353954310000001</v>
+        <v>2.629082404</v>
       </c>
       <c r="M29" s="187">
         <f t="shared" si="4"/>
-        <v>2.6353954310000001</v>
+        <v>2.629082404</v>
       </c>
       <c r="N29" s="222"/>
       <c r="O29" s="223">
@@ -12691,11 +12784,11 @@
       </c>
       <c r="P29" s="222"/>
       <c r="Q29" s="187">
-        <v>2.6353954310000001</v>
-      </c>
-      <c r="R29" s="189" t="e">
+        <v>2.629082404</v>
+      </c>
+      <c r="R29" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D29,Q29/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.7336000000117702E-7</v>
       </c>
       <c r="S29" s="16"/>
       <c r="Y29" s="218"/>
@@ -12711,7 +12804,7 @@
       </c>
       <c r="D30" s="62" t="str">
         <f>_xll.qlSimpleQuote(C30,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_24Y_Quote#0003</v>
+        <v>USD_CURVE_3M_24Y_Quote#0002</v>
       </c>
       <c r="E30" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -12727,14 +12820,14 @@
         <v>USD_CURVE_3M_24Y</v>
       </c>
       <c r="K30" s="187">
-        <v>2.645161645</v>
+        <v>2.6384814519999997</v>
       </c>
       <c r="L30" s="187">
-        <v>2.645161645</v>
+        <v>2.6384814519999997</v>
       </c>
       <c r="M30" s="187">
         <f t="shared" si="4"/>
-        <v>2.645161645</v>
+        <v>2.6384814519999997</v>
       </c>
       <c r="N30" s="222"/>
       <c r="O30" s="223">
@@ -12742,11 +12835,11 @@
       </c>
       <c r="P30" s="222"/>
       <c r="Q30" s="187">
-        <v>2.645161645</v>
-      </c>
-      <c r="R30" s="189" t="e">
+        <v>2.6384814519999997</v>
+      </c>
+      <c r="R30" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D30,Q30/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>1.3292999999706123E-7</v>
       </c>
       <c r="S30" s="16"/>
       <c r="Y30" s="218"/>
@@ -12762,7 +12855,7 @@
       </c>
       <c r="D31" s="62" t="str">
         <f>_xll.qlSimpleQuote(C31,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_25Y_Quote#0003</v>
+        <v>USD_CURVE_3M_25Y_Quote#0002</v>
       </c>
       <c r="E31" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -12778,14 +12871,14 @@
         <v>USD_CURVE_3M_25Y</v>
       </c>
       <c r="K31" s="187">
-        <v>2.6539999999999999</v>
+        <v>2.6470000000000002</v>
       </c>
       <c r="L31" s="187">
-        <v>2.6539999999999999</v>
+        <v>2.6470000000000002</v>
       </c>
       <c r="M31" s="187">
         <f t="shared" si="4"/>
-        <v>2.6539999999999999</v>
+        <v>2.6470000000000002</v>
       </c>
       <c r="N31" s="222"/>
       <c r="O31" s="223">
@@ -12793,11 +12886,11 @@
       </c>
       <c r="P31" s="222"/>
       <c r="Q31" s="187">
-        <v>2.6539999999999999</v>
-      </c>
-      <c r="R31" s="189" t="e">
+        <v>2.6470000000000002</v>
+      </c>
+      <c r="R31" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D31,Q31/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S31" s="16"/>
       <c r="Y31" s="218"/>
@@ -12813,7 +12906,7 @@
       </c>
       <c r="D32" s="62" t="str">
         <f>_xll.qlSimpleQuote(C32,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_26Y_Quote#0003</v>
+        <v>USD_CURVE_3M_26Y_Quote#0002</v>
       </c>
       <c r="E32" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -12829,14 +12922,14 @@
         <v>USD_CURVE_3M_26Y</v>
       </c>
       <c r="K32" s="187">
-        <v>2.6620760020000001</v>
+        <v>2.6548444369999999</v>
       </c>
       <c r="L32" s="187">
-        <v>2.6620760020000001</v>
+        <v>2.6548444369999999</v>
       </c>
       <c r="M32" s="187">
         <f t="shared" si="4"/>
-        <v>2.6620760020000001</v>
+        <v>2.6548444369999999</v>
       </c>
       <c r="N32" s="222"/>
       <c r="O32" s="223">
@@ -12844,11 +12937,11 @@
       </c>
       <c r="P32" s="222"/>
       <c r="Q32" s="187">
-        <v>2.6620760020000001</v>
-      </c>
-      <c r="R32" s="189" t="e">
+        <v>2.6548444369999999</v>
+      </c>
+      <c r="R32" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D32,Q32/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-2.1983999999933279E-7</v>
       </c>
       <c r="S32" s="16"/>
       <c r="Y32" s="218"/>
@@ -12864,7 +12957,7 @@
       </c>
       <c r="D33" s="62" t="str">
         <f>_xll.qlSimpleQuote(C33,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_27Y_Quote#0003</v>
+        <v>USD_CURVE_3M_27Y_Quote#0002</v>
       </c>
       <c r="E33" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -12880,14 +12973,14 @@
         <v>USD_CURVE_3M_27Y</v>
       </c>
       <c r="K33" s="187">
-        <v>2.669417224</v>
+        <v>2.6619387420000002</v>
       </c>
       <c r="L33" s="187">
-        <v>2.669417224</v>
+        <v>2.6619387420000002</v>
       </c>
       <c r="M33" s="187">
         <f t="shared" si="4"/>
-        <v>2.669417224</v>
+        <v>2.6619387420000002</v>
       </c>
       <c r="N33" s="222"/>
       <c r="O33" s="223">
@@ -12895,11 +12988,11 @@
       </c>
       <c r="P33" s="222"/>
       <c r="Q33" s="187">
-        <v>2.669417224</v>
-      </c>
-      <c r="R33" s="189" t="e">
+        <v>2.6619387420000002</v>
+      </c>
+      <c r="R33" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D33,Q33/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-4.2445000000140842E-7</v>
       </c>
       <c r="S33" s="16"/>
       <c r="Y33" s="218"/>
@@ -12915,7 +13008,7 @@
       </c>
       <c r="D34" s="62" t="str">
         <f>_xll.qlSimpleQuote(C34,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_28Y_Quote#0003</v>
+        <v>USD_CURVE_3M_28Y_Quote#0002</v>
       </c>
       <c r="E34" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -12931,14 +13024,14 @@
         <v>USD_CURVE_3M_28Y</v>
       </c>
       <c r="K34" s="187">
-        <v>2.6760169679999999</v>
+        <v>2.668333386</v>
       </c>
       <c r="L34" s="187">
-        <v>2.6760169679999999</v>
+        <v>2.668333386</v>
       </c>
       <c r="M34" s="187">
         <f t="shared" si="4"/>
-        <v>2.6760169679999999</v>
+        <v>2.668333386</v>
       </c>
       <c r="N34" s="222"/>
       <c r="O34" s="223">
@@ -12946,11 +13039,11 @@
       </c>
       <c r="P34" s="222"/>
       <c r="Q34" s="187">
-        <v>2.6760169679999999</v>
-      </c>
-      <c r="R34" s="189" t="e">
+        <v>2.668333386</v>
+      </c>
+      <c r="R34" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D34,Q34/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-5.1180999999581034E-7</v>
       </c>
       <c r="S34" s="16"/>
       <c r="Y34" s="218"/>
@@ -12966,7 +13059,7 @@
       </c>
       <c r="D35" s="62" t="str">
         <f>_xll.qlSimpleQuote(C35,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_29Y_Quote#0003</v>
+        <v>USD_CURVE_3M_29Y_Quote#0002</v>
       </c>
       <c r="E35" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -12982,14 +13075,14 @@
         <v>USD_CURVE_3M_29Y</v>
       </c>
       <c r="K35" s="187">
-        <v>2.6819073019999999</v>
+        <v>2.6740438389999999</v>
       </c>
       <c r="L35" s="187">
-        <v>2.6819073019999999</v>
+        <v>2.6740438389999999</v>
       </c>
       <c r="M35" s="187">
         <f t="shared" si="4"/>
-        <v>2.6819073019999999</v>
+        <v>2.6740438389999999</v>
       </c>
       <c r="N35" s="222"/>
       <c r="O35" s="223">
@@ -12997,11 +13090,11 @@
       </c>
       <c r="P35" s="222"/>
       <c r="Q35" s="187">
-        <v>2.6819073019999999</v>
-      </c>
-      <c r="R35" s="189" t="e">
+        <v>2.6740438389999999</v>
+      </c>
+      <c r="R35" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D35,Q35/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>-3.9441999999736965E-7</v>
       </c>
       <c r="S35" s="16"/>
       <c r="Y35" s="218"/>
@@ -13017,7 +13110,7 @@
       </c>
       <c r="D36" s="62" t="str">
         <f>_xll.qlSimpleQuote(C36,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_30Y_Quote#0003</v>
+        <v>USD_CURVE_3M_30Y_Quote#0002</v>
       </c>
       <c r="E36" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -13033,14 +13126,14 @@
         <v>USD_CURVE_3M_30Y</v>
       </c>
       <c r="K36" s="187">
-        <v>2.6870000000000003</v>
+        <v>2.6790000000000003</v>
       </c>
       <c r="L36" s="187">
-        <v>2.6870000000000003</v>
+        <v>2.6790000000000003</v>
       </c>
       <c r="M36" s="187">
         <f t="shared" si="4"/>
-        <v>2.6870000000000003</v>
+        <v>2.6790000000000003</v>
       </c>
       <c r="N36" s="222"/>
       <c r="O36" s="223">
@@ -13048,11 +13141,11 @@
       </c>
       <c r="P36" s="222"/>
       <c r="Q36" s="187">
-        <v>2.6870000000000003</v>
-      </c>
-      <c r="R36" s="189" t="e">
+        <v>2.6790000000000003</v>
+      </c>
+      <c r="R36" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D36,Q36/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S36" s="16"/>
       <c r="Y36" s="218"/>
@@ -13068,7 +13161,7 @@
       </c>
       <c r="D37" s="62" t="str">
         <f>_xll.qlSimpleQuote(C37,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_35Y_Quote#0003</v>
+        <v>USD_CURVE_3M_35Y_Quote#0002</v>
       </c>
       <c r="E37" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -13119,7 +13212,7 @@
       </c>
       <c r="D38" s="62" t="str">
         <f>_xll.qlSimpleQuote(C38,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_40Y_Quote#0003</v>
+        <v>USD_CURVE_3M_40Y_Quote#0002</v>
       </c>
       <c r="E38" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -13135,14 +13228,14 @@
         <v>USD_CURVE_3M_40Y</v>
       </c>
       <c r="K38" s="187">
-        <v>2.7050000000000001</v>
+        <v>2.6959999999999997</v>
       </c>
       <c r="L38" s="187">
-        <v>2.7050000000000001</v>
+        <v>2.6959999999999997</v>
       </c>
       <c r="M38" s="187">
         <f t="shared" si="4"/>
-        <v>2.7050000000000001</v>
+        <v>2.6959999999999997</v>
       </c>
       <c r="N38" s="222"/>
       <c r="O38" s="223">
@@ -13150,11 +13243,11 @@
       </c>
       <c r="P38" s="222"/>
       <c r="Q38" s="187">
-        <v>2.7050000000000001</v>
-      </c>
-      <c r="R38" s="189" t="e">
+        <v>2.6959999999999997</v>
+      </c>
+      <c r="R38" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D38,Q38/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>9.9999999999961231E-6</v>
       </c>
       <c r="S38" s="16"/>
       <c r="Y38" s="218"/>
@@ -13170,7 +13263,7 @@
       </c>
       <c r="D39" s="62" t="str">
         <f>_xll.qlSimpleQuote(C39,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_50Y_Quote#0003</v>
+        <v>USD_CURVE_3M_50Y_Quote#0002</v>
       </c>
       <c r="E39" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -13186,14 +13279,14 @@
         <v>USD_CURVE_3M_50Y</v>
       </c>
       <c r="K39" s="187">
-        <v>2.69</v>
+        <v>2.6819999999999999</v>
       </c>
       <c r="L39" s="187">
-        <v>2.69</v>
+        <v>2.6819999999999999</v>
       </c>
       <c r="M39" s="187">
         <f t="shared" si="4"/>
-        <v>2.69</v>
+        <v>2.6819999999999999</v>
       </c>
       <c r="N39" s="222"/>
       <c r="O39" s="223">
@@ -13201,11 +13294,11 @@
       </c>
       <c r="P39" s="222"/>
       <c r="Q39" s="187">
-        <v>2.69</v>
-      </c>
-      <c r="R39" s="189" t="e">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="R39" s="189">
         <f>_xll.qlSimpleQuoteSetValue(D39,Q39/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="S39" s="16"/>
       <c r="Y39" s="218"/>
@@ -13221,7 +13314,7 @@
       </c>
       <c r="D40" s="2" t="str">
         <f>_xll.qlSimpleQuote(C40,,0.0001,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_CURVE_3M_60Y_Quote#0003</v>
+        <v>USD_CURVE_3M_60Y_Quote#0002</v>
       </c>
       <c r="E40" s="227" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -13237,14 +13330,14 @@
         <v>USD_CURVE_3M_60Y</v>
       </c>
       <c r="K40" s="188">
-        <v>2.6760840740000003</v>
+        <v>2.6693453260000002</v>
       </c>
       <c r="L40" s="188">
-        <v>2.6760840740000003</v>
+        <v>2.6693453260000002</v>
       </c>
       <c r="M40" s="188">
         <f t="shared" si="4"/>
-        <v>2.6760840740000003</v>
+        <v>2.6693453260000002</v>
       </c>
       <c r="N40" s="222"/>
       <c r="O40" s="223">
@@ -13252,11 +13345,11 @@
       </c>
       <c r="P40" s="222"/>
       <c r="Q40" s="188">
-        <v>2.6760840740000003</v>
-      </c>
-      <c r="R40" s="199" t="e">
+        <v>2.6693453260000002</v>
+      </c>
+      <c r="R40" s="199">
         <f>_xll.qlSimpleQuoteSetValue(D40,Q40/100,Trigger)</f>
-        <v>#N/A</v>
+        <v>8.2516100000026849E-6</v>
       </c>
       <c r="S40" s="16"/>
       <c r="Y40" s="218"/>
